--- a/output/oil_price.xlsx
+++ b/output/oil_price.xlsx
@@ -384,28 +384,28 @@
         <v>43.47103390525304</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
       <c r="E1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="G1" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="H1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="J1" s="0" t="n">
         <v>41.33584915225265</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>43.47103390525304</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>43.47103390525304</v>
       </c>
       <c r="K1" s="0" t="n">
         <v>41.33584915225265</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>44.57963644236044</v>
@@ -689,25 +689,25 @@
         <v>42.39</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>42.39</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="F2" s="0" t="n">
+        <v>44.57963644236044</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>42.39</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
+        <v>44.57963644236044</v>
+      </c>
+      <c r="J2" s="0" t="n">
         <v>40.30791283646582</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>44.57963644236044</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>40.30791283646582</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>43.47103390525303</v>
@@ -991,25 +991,25 @@
         <v>41.33584915225265</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>43.47103390525303</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>41.33584915225265</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>43.47103390525303</v>
+      </c>
+      <c r="J3" s="0" t="n">
         <v>39.30553915192968</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>45.71651066925465</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>41.33584915225265</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>44.57963644236043</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>44.57963644236043</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="H4" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="J4" s="0" t="n">
         <v>38.32809240934479</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>44.57963644236043</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>40.30791283646582</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>41.33584915225265</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>37.37495272767814</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>41.33584915225265</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>42.38999999999999</v>
       </c>
       <c r="C6" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="D6" s="0" t="n">
         <v>40.30791283646582</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>38.32809240934479</v>
-      </c>
       <c r="E6" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>42.39</v>
@@ -2190,34 +2190,34 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="C7" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>39.30553915192968</v>
-      </c>
       <c r="E7" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>43.47103390525304</v>
@@ -2492,34 +2492,34 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>42.39</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>42.39</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>49.30406576485194</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>42.39</v>
@@ -2794,34 +2794,34 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>43.47103390525303</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>41.33584915225264</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>43.47103390525304</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>44.57963644236043</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>36.44551564104452</v>
+        <v>42.39</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>46.88237757331991</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>42.39</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>41.33584915225264</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>43.47103390525304</v>
@@ -3703,31 +3703,31 @@
         <v>46.8823775733199</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>42.39</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>46.88237757331991</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>42.39</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>41.33584915225264</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>41.33584915225265</v>
@@ -4307,31 +4307,31 @@
         <v>46.8823775733199</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>36.44551564104452</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.39</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>46.88237757331991</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>40.30791283646582</v>
@@ -4609,31 +4609,31 @@
         <v>45.71651066925464</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G15" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>41.33584915225264</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>35.53919171536401</v>
-      </c>
       <c r="I15" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>53.17315047361375</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>41.33584915225265</v>
@@ -4911,31 +4911,31 @@
         <v>44.57963644236042</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.39</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="F16" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>40.30791283646581</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>34.65540617455234</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>36.44551564104452</v>
-      </c>
       <c r="J16" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>42.39</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>45.71651066925464</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>39.30553915192968</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>39.30553915192968</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>41.33584915225264</v>
-      </c>
       <c r="G17" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>33.79359853600709</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>43.471033905253</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>43.47103390525304</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F18" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="I18" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="G18" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="H18" s="0" t="n">
-        <v>32.95322225515864</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>36.44551564104451</v>
-      </c>
       <c r="J18" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>44.57963644236044</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="B19" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>45.71651066925465</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="G19" s="0" t="n">
         <v>48.0779765286309</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>37.37495272767814</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>37.37495272767814</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
       <c r="H19" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>53.17315047361375</v>
+        <v>43.471033905253</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>43.47103390525303</v>
@@ -6119,31 +6119,31 @@
         <v>44.57963644236042</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>46.88237757331991</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>36.44551564104452</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>42.38999999999999</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>41.33584915225264</v>
@@ -6723,31 +6723,31 @@
         <v>44.57963644236042</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>49.30406576485195</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
       <c r="G22" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="I22" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="H22" s="0" t="n">
-        <v>32.95322225515863</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="J22" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>42.38999999999999</v>
@@ -7025,31 +7025,31 @@
         <v>43.47103390525301</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>50.561422848094</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>41.33584915225264</v>
@@ -7327,31 +7327,31 @@
         <v>42.38999999999997</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G24" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="H24" s="0" t="n">
-        <v>34.65540617455232</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="J24" s="0" t="n">
-        <v>51.85084517403467</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>40.30791283646581</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>53.17315047361376</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="G25" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="I25" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="H25" s="0" t="n">
-        <v>33.79359853600707</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
       <c r="J25" s="0" t="n">
-        <v>50.56142284809399</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>41.33584915225264</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>38.32809240934478</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>34.65540617455234</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G26" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="H26" s="0" t="n">
-        <v>34.65540617455232</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="J26" s="0" t="n">
-        <v>49.30406576485194</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>40.30791283646581</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>50.561422848094</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
       <c r="G27" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="I27" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
-      <c r="H27" s="0" t="n">
-        <v>33.79359853600707</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>35.53919171536399</v>
-      </c>
       <c r="J27" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>41.33584915225264</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B28" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>49.30406576485195</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="C28" s="0" t="n">
-        <v>36.44551564104451</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>34.65540617455234</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>32.95322225515862</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>34.65540617455233</v>
-      </c>
       <c r="J28" s="0" t="n">
-        <v>49.30406576485194</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>40.30791283646581</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B29" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>50.561422848094</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="I29" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>35.53919171536401</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>35.53919171536401</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>33.79359853600706</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>35.53919171536399</v>
-      </c>
       <c r="J29" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>41.33584915225264</v>
@@ -9139,31 +9139,31 @@
         <v>42.38999999999997</v>
       </c>
       <c r="B30" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>51.85084517403467</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="I30" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="C30" s="0" t="n">
-        <v>34.65540617455234</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>36.44551564104451</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>34.65540617455234</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>34.65540617455231</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="J30" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>40.30791283646581</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>35.539191715364</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>50.561422848094</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>33.79359853600709</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>41.33584915225264</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B32" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>51.85084517403467</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>36.4455156410445</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>32.95322225515864</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
       <c r="G32" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>32.95322225515861</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="I32" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>38.32809240934476</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>46.8823775733199</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>42.38999999999999</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B33" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>35.53919171536399</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>53.17315047361376</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>35.539191715364</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>33.79359853600708</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
       <c r="G33" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>33.79359853600705</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="I33" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>37.37495272767811</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>48.07797652863091</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>43.47103390525303</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>36.44551564104449</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>54.52917733162504</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>51.85084517403466</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>34.6554061745523</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>49.30406576485194</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>44.57963644236043</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="C35" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>53.17315047361375</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>53.17315047361375</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="J35" s="0" t="n">
         <v>37.37495272767811</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>35.539191715364</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>37.37495272767812</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>33.79359853600705</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>48.07797652863091</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>43.47103390525302</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B36" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>34.65540617455232</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>51.85084517403467</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>51.85084517403466</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>51.85084517403466</v>
+      </c>
+      <c r="I36" s="0" t="n">
         <v>38.32809240934478</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>38.32809240934477</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>36.4455156410445</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>34.65540617455229</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="J36" s="0" t="n">
-        <v>49.30406576485194</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>42.38999999999999</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
       <c r="C37" s="0" t="n">
+        <v>33.79359853600707</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>53.17315047361375</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="J37" s="0" t="n">
         <v>37.37495272767811</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>41.33584915225262</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>37.37495272767812</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>33.79359853600704</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="J37" s="0" t="n">
-        <v>48.07797652863091</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>43.47103390525302</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>54.52917733162502</v>
       </c>
       <c r="I38" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>38.32809240934476</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>49.30406576485194</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>42.38999999999999</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>53.17315047361375</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="G39" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="I39" s="0" t="n">
         <v>37.37495272767812</v>
       </c>
-      <c r="H39" s="0" t="n">
-        <v>33.79359853600703</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
       <c r="J39" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>43.47103390525302</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B40" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>31.33464520739843</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>51.85084517403467</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F40" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="C40" s="0" t="n">
-        <v>38.32809240934477</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>36.44551564104451</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
       <c r="G40" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>54.52917733162502</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>42.38999999999999</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
+        <v>39.30553915192965</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>32.13374437886038</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>35.53919171536401</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>35.53919171536398</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>41.33584915225262</v>
-      </c>
       <c r="G41" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="I41" s="0" t="n">
         <v>37.37495272767812</v>
       </c>
-      <c r="H41" s="0" t="n">
-        <v>35.53919171536394</v>
-      </c>
-      <c r="I41" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
       <c r="J41" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>43.47103390525302</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>38.32809240934478</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>34.65540617455234</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F42" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>57.34585753585388</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="J42" s="0" t="n">
         <v>42.38999999999997</v>
-      </c>
-      <c r="G42" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>34.65540617455228</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>44.57963644236042</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>42.38999999999999</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>37.37495272767812</v>
       </c>
       <c r="C43" s="0" t="n">
+        <v>32.13374437886038</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>53.17315047361375</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F43" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>35.53919171536401</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>35.53919171536398</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
       <c r="G43" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>58.8082971754403</v>
+      </c>
+      <c r="I43" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="H43" s="0" t="n">
-        <v>35.53919171536394</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J43" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>41.33584915225264</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>42.38999999999999</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="D45" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F45" s="0" t="n">
         <v>37.37495272767812</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
       <c r="G45" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>37.37495272767805</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>43.471033905253</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>43.47103390525302</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>44.57963644236042</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>33.79359853600705</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F47" s="0" t="n">
         <v>37.37495272767812</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
       <c r="G47" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>45.71651066925463</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="D48" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>38.32809240934478</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
       <c r="G48" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="I48" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="H48" s="0" t="n">
-        <v>36.44551564104443</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
       <c r="J48" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>44.57963644236042</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>33.79359853600705</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="G49" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="I49" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="H49" s="0" t="n">
-        <v>35.53919171536393</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J49" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>43.47103390525302</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="G50" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>57.34585753585387</v>
+      </c>
+      <c r="I50" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="H50" s="0" t="n">
-        <v>36.44551564104443</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
       <c r="J50" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>44.57963644236042</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="B51" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
       <c r="C51" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>32.13374437886037</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="G51" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>58.80829717544029</v>
+      </c>
+      <c r="I51" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
-      <c r="H51" s="0" t="n">
-        <v>37.37495272767804</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
       <c r="J51" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>43.47103390525301</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="D52" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>60.30803209303519</v>
+      </c>
+      <c r="I52" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>38.3280924093447</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
       <c r="J52" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>42.38999999999997</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>32.13374437886037</v>
       </c>
       <c r="D53" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="F53" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="E53" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="G53" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>61.84601339644777</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>41.33584915225262</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="D54" s="0" t="n">
+        <v>49.30406576485194</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F54" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="G54" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>42.38999999999997</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>30.55541796490628</v>
       </c>
       <c r="D55" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="H55" s="0" t="n">
+        <v>65.04064148674205</v>
+      </c>
+      <c r="I55" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>35.53919171536393</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J55" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>41.33584915225262</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
+        <v>34.65540617455232</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>31.33464520739841</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>49.30406576485194</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G56" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>38.32809240934477</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>36.44551564104448</v>
-      </c>
-      <c r="D56" s="0" t="n">
+      <c r="H56" s="0" t="n">
+        <v>63.42321644873118</v>
+      </c>
+      <c r="I56" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>36.44551564104448</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
-      <c r="G56" s="0" t="n">
-        <v>44.57963644236041</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>34.65540617455227</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="J56" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>40.30791283646579</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B57" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F57" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <v>35.53919171536398</v>
-      </c>
-      <c r="D57" s="0" t="n">
+      <c r="G57" s="0" t="n">
+        <v>41.33584915225261</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>61.84601339644777</v>
+      </c>
+      <c r="I57" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>35.53919171536398</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>33.79359853600702</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J57" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>41.33584915225262</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="D58" s="0" t="n">
+        <v>49.30406576485194</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>40.30791283646578</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>63.42321644873118</v>
+      </c>
+      <c r="I58" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>36.44551564104448</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>44.57963644236041</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>32.95322225515858</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="J58" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>42.38999999999997</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B59" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>30.55541796490627</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="F59" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="D59" s="0" t="n">
+      <c r="G59" s="0" t="n">
+        <v>39.30553915192965</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>61.84601339644777</v>
+      </c>
+      <c r="I59" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>32.13374437886034</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J59" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>41.33584915225262</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D60" s="0" t="n">
+        <v>49.30406576485194</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>40.30791283646578</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>60.30803209303519</v>
+      </c>
+      <c r="I60" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>44.57963644236041</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>32.95322225515858</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="J60" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>42.38999999999997</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D61" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>39.30553915192965</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>58.80829717544029</v>
+      </c>
+      <c r="I61" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>39.30553915192964</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="G61" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>33.79359853600702</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J61" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>41.33584915225262</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="D62" s="0" t="n">
+        <v>51.85084517403467</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>40.30791283646578</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>60.30803209303519</v>
+      </c>
+      <c r="I62" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="E62" s="0" t="n">
-        <v>40.30791283646577</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <v>46.88237757331988</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>32.95322225515858</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="J62" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>40.30791283646579</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B63" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>50.56142284809399</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="F63" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="C63" s="0" t="n">
-        <v>35.53919171536398</v>
-      </c>
-      <c r="D63" s="0" t="n">
+      <c r="G63" s="0" t="n">
+        <v>39.30553915192965</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>58.80829717544029</v>
+      </c>
+      <c r="I63" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>41.3358491522526</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>32.13374437886034</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="J63" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>39.30553915192966</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="E64" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>38.32809240934476</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>57.34585753585387</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="J64" s="0" t="n">
         <v>42.38999999999995</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>49.30406576485192</v>
-      </c>
-      <c r="H64" s="0" t="n">
-        <v>31.33464520739838</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>44.57963644236042</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>38.32809240934477</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B65" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>53.17315047361375</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="F65" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="C65" s="0" t="n">
-        <v>33.79359853600707</v>
-      </c>
-      <c r="D65" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>43.47103390525299</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="G65" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>39.30553915192966</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="D66" s="0" t="n">
+        <v>54.52917733162503</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G66" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>57.34585753585387</v>
+      </c>
+      <c r="I66" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>44.57963644236039</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>51.85084517403465</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <v>29.79556847797583</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
       <c r="J66" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>40.30791283646579</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B67" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>55.91978571853331</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="G67" s="0" t="n">
         <v>37.37495272767811</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>33.79359853600707</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="E67" s="0" t="n">
-        <v>43.47103390525298</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>53.17315047361373</v>
-      </c>
       <c r="H67" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>41.33584915225262</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>54.52917733162503</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>40.30791283646579</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
+        <v>37.3749527276781</v>
+      </c>
+      <c r="B69" s="0" t="n">
         <v>41.33584915225262</v>
       </c>
-      <c r="B69" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
       <c r="C69" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>30.55541796490627</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>53.17315047361375</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>45.71651066925459</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>43.471033905253</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>39.30553915192966</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
+        <v>36.44551564104448</v>
+      </c>
+      <c r="B70" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="B70" s="0" t="n">
-        <v>40.30791283646579</v>
-      </c>
       <c r="C70" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>54.52917733162502</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>46.88237757331985</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>38.32809240934477</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>48.07797652863086</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="F71" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="G71" s="0" t="n">
         <v>39.30553915192965</v>
       </c>
-      <c r="G71" s="0" t="n">
-        <v>53.17315047361373</v>
-      </c>
       <c r="H71" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>37.37495272767811</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>49.30406576485189</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="F72" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G72" s="0" t="n">
         <v>40.30791283646578</v>
       </c>
-      <c r="G72" s="0" t="n">
-        <v>51.85084517403465</v>
-      </c>
       <c r="H72" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>38.32809240934477</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>48.07797652863086</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>61.84601339644777</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>39.30553915192966</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>49.30406576485189</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>60.30803209303518</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>40.30791283646579</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>41.33584915225262</v>
       </c>
       <c r="C75" s="0" t="n">
+        <v>30.55541796490626</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="G75" s="0" t="n">
+        <v>39.30553915192965</v>
+      </c>
+      <c r="H75" s="0" t="n">
+        <v>58.80829717544029</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>48.07797652863088</v>
+      </c>
+      <c r="J75" s="0" t="n">
         <v>41.3358491522526</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>50.56142284809397</v>
-      </c>
-      <c r="E75" s="0" t="n">
-        <v>50.56142284809394</v>
-      </c>
-      <c r="F75" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="G75" s="0" t="n">
-        <v>53.17315047361373</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>33.79359853600701</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>39.30553915192966</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
       <c r="C76" s="0" t="n">
+        <v>29.79556847797584</v>
+      </c>
+      <c r="D76" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G76" s="0" t="n">
+        <v>40.30791283646578</v>
+      </c>
+      <c r="H76" s="0" t="n">
+        <v>57.34585753585387</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>46.88237757331987</v>
+      </c>
+      <c r="J76" s="0" t="n">
         <v>42.38999999999995</v>
-      </c>
-      <c r="D76" s="0" t="n">
-        <v>51.85084517403465</v>
-      </c>
-      <c r="E76" s="0" t="n">
-        <v>51.85084517403462</v>
-      </c>
-      <c r="F76" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
-      <c r="G76" s="0" t="n">
-        <v>51.85084517403465</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>32.95322225515857</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="J76" s="0" t="n">
-        <v>40.30791283646579</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>38.32809240934477</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>53.1731504736137</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>37.37495272767811</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D78" s="0" t="n">
         <v>51.85084517403465</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>51.85084517403461</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>36.44551564104449</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>53.17315047361369</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F79" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="G79" s="0" t="n">
         <v>41.33584915225261</v>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>50.56142284809397</v>
-      </c>
       <c r="H79" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>37.37495272767811</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D80" s="0" t="n">
         <v>51.85084517403465</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>51.8508451740346</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>36.44551564104449</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>50.56142284809393</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>43.471033905253</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>35.53919171536399</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D82" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="G82" s="0" t="n">
+        <v>44.5796364423604</v>
+      </c>
+      <c r="H82" s="0" t="n">
         <v>54.52917733162501</v>
       </c>
-      <c r="E82" s="0" t="n">
-        <v>51.8508451740346</v>
-      </c>
-      <c r="F82" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>54.52917733162501</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>34.65540617455225</v>
-      </c>
       <c r="I82" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>36.44551564104449</v>
@@ -25145,31 +25145,31 @@
         <v>35.53919171536398</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D83" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="G83" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="H83" s="0" t="n">
         <v>55.91978571853329</v>
       </c>
-      <c r="E83" s="0" t="n">
-        <v>53.17315047361367</v>
-      </c>
-      <c r="F83" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>53.17315047361373</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>33.79359853600701</v>
-      </c>
       <c r="I83" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>35.53919171536398</v>
@@ -25447,31 +25447,31 @@
         <v>36.44551564104448</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D84" s="0" t="n">
         <v>54.52917733162501</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>51.85084517403459</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G84" s="0" t="n">
+        <v>44.5796364423604</v>
+      </c>
+      <c r="H84" s="0" t="n">
         <v>54.52917733162501</v>
       </c>
-      <c r="H84" s="0" t="n">
-        <v>34.65540617455225</v>
-      </c>
       <c r="I84" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>36.44551564104448</v>
@@ -25749,31 +25749,31 @@
         <v>35.53919171536398</v>
       </c>
       <c r="B85" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>27.62752732637607</v>
+      </c>
+      <c r="D85" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="F85" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="C85" s="0" t="n">
-        <v>45.7165106692546</v>
-      </c>
-      <c r="D85" s="0" t="n">
+      <c r="G85" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="H85" s="0" t="n">
         <v>53.17315047361373</v>
       </c>
-      <c r="E85" s="0" t="n">
-        <v>53.17315047361367</v>
-      </c>
-      <c r="F85" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="G85" s="0" t="n">
-        <v>55.91978571853329</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>33.79359853600701</v>
-      </c>
       <c r="I85" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225257</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>37.3749527276781</v>
@@ -26051,31 +26051,31 @@
         <v>36.44551564104448</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>54.52917733162501</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>54.52917733162494</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>54.529177331625</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>36.44551564104448</v>
@@ -26353,31 +26353,31 @@
         <v>35.53919171536398</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.471033905253</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D87" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>41.33584915225262</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="G87" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="H87" s="0" t="n">
         <v>55.91978571853329</v>
       </c>
-      <c r="E87" s="0" t="n">
-        <v>55.91978571853322</v>
-      </c>
-      <c r="F87" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="G87" s="0" t="n">
-        <v>55.91978571853329</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>33.79359853600701</v>
-      </c>
       <c r="I87" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>37.3749527276781</v>
@@ -26655,31 +26655,31 @@
         <v>36.44551564104448</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="C88" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>42.38999999999997</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="G88" s="0" t="n">
         <v>44.57963644236039</v>
       </c>
-      <c r="D88" s="0" t="n">
+      <c r="H88" s="0" t="n">
         <v>57.34585753585387</v>
       </c>
-      <c r="E88" s="0" t="n">
-        <v>57.34585753585379</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
-      <c r="G88" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>34.65540617455225</v>
-      </c>
       <c r="I88" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>36.44551564104448</v>
@@ -26957,31 +26957,31 @@
         <v>37.3749527276781</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="C89" s="0" t="n">
+        <v>27.62752732637607</v>
+      </c>
+      <c r="D89" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="G89" s="0" t="n">
         <v>45.7165106692546</v>
       </c>
-      <c r="D89" s="0" t="n">
-        <v>55.91978571853329</v>
-      </c>
-      <c r="E89" s="0" t="n">
-        <v>58.80829717544021</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>55.91978571853329</v>
-      </c>
       <c r="H89" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>35.53919171536398</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="C90" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D90" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="G90" s="0" t="n">
         <v>46.88237757331986</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="E90" s="0" t="n">
-        <v>57.34585753585379</v>
-      </c>
-      <c r="F90" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
-      <c r="G90" s="0" t="n">
-        <v>54.52917733162501</v>
-      </c>
       <c r="H90" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>60.30803209303518</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>34.65540617455232</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="C91" s="0" t="n">
+        <v>27.62752732637607</v>
+      </c>
+      <c r="D91" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="F91" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="G91" s="0" t="n">
         <v>45.7165106692546</v>
       </c>
-      <c r="D91" s="0" t="n">
-        <v>55.91978571853329</v>
-      </c>
-      <c r="E91" s="0" t="n">
-        <v>58.80829717544021</v>
-      </c>
-      <c r="F91" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>55.91978571853329</v>
-      </c>
       <c r="H91" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>61.84601339644776</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>33.79359853600707</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>60.3080320930351</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>34.65540617455232</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>48.07797652863086</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>61.84601339644776</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>35.53919171536398</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>57.34585753585378</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>60.30803209303518</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>34.65540617455232</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="G95" s="0" t="n">
+        <v>45.7165106692546</v>
+      </c>
+      <c r="H95" s="0" t="n">
         <v>61.84601339644776</v>
       </c>
-      <c r="H95" s="0" t="n">
-        <v>35.53919171536392</v>
-      </c>
       <c r="I95" s="0" t="n">
-        <v>41.33584915225258</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>33.79359853600707</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>60.30803209303509</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>44.57963644236039</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>42.38999999999992</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>34.65540617455232</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="C97" s="0" t="n">
+        <v>29.05461486226052</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="F97" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="G97" s="0" t="n">
         <v>43.47103390525298</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
-      <c r="E97" s="0" t="n">
-        <v>61.84601339644767</v>
-      </c>
-      <c r="F97" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="G97" s="0" t="n">
-        <v>65.04064148674203</v>
-      </c>
       <c r="H97" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>43.47103390525296</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>33.79359853600707</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>60.30803209303518</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>60.30803209303509</v>
+        <v>44.57963644236039</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>44.57963644236036</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>34.65540617455232</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>61.84601339644767</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>61.84601339644776</v>
+        <v>45.71651066925459</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>45.71651066925457</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>33.79359853600707</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="C100" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E100" s="0" t="n">
         <v>42.38999999999994</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>60.30803209303518</v>
-      </c>
-      <c r="E100" s="0" t="n">
-        <v>63.42321644873107</v>
-      </c>
       <c r="F100" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>44.57963644236036</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>34.65540617455232</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="C101" s="0" t="n">
+        <v>27.62752732637607</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="E101" s="0" t="n">
         <v>43.47103390525298</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
-      <c r="E101" s="0" t="n">
-        <v>65.04064148674193</v>
-      </c>
       <c r="F101" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>61.84601339644776</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>45.71651066925457</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>35.53919171536398</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934475</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="C102" s="0" t="n">
+        <v>28.33208721687188</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>44.57963644236038</v>
+      </c>
+      <c r="F102" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="G102" s="0" t="n">
         <v>42.38999999999994</v>
       </c>
-      <c r="D102" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="E102" s="0" t="n">
-        <v>66.69931425547455</v>
-      </c>
-      <c r="F102" s="0" t="n">
-        <v>42.38999999999996</v>
-      </c>
-      <c r="G102" s="0" t="n">
+      <c r="H102" s="0" t="n">
+        <v>60.30803209303516</v>
+      </c>
+      <c r="I102" s="0" t="n">
         <v>60.30803209303517</v>
       </c>
-      <c r="H102" s="0" t="n">
-        <v>32.95322225515857</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>46.88237757331983</v>
-      </c>
       <c r="J102" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>36.44551564104448</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="C103" s="0" t="n">
+        <v>27.62752732637607</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>43.47103390525298</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="G103" s="0" t="n">
         <v>41.33584915225259</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>68.40028665857186</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>61.84601339644775</v>
-      </c>
       <c r="H103" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>48.07797652863083</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>37.3749527276781</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934475</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>44.57963644236039</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>60.30803209303518</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>70.14463742542591</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>63.42321644873116</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>60.30803209303515</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>46.88237757331982</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="J104" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>36.44551564104448</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>68.40028665857186</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="G105" s="0" t="n">
+        <v>43.47103390525298</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>58.80829717544026</v>
+      </c>
+      <c r="I105" s="0" t="n">
         <v>65.04064148674202</v>
       </c>
-      <c r="H105" s="0" t="n">
-        <v>33.79359853600701</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>48.07797652863082</v>
-      </c>
       <c r="J105" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>35.53919171536398</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>38.32809240934475</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>60.30803209303518</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>70.14463742542591</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>66.69931425547463</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585384</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>49.30406576485186</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>34.65540617455232</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>61.84601339644776</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>71.93347279529065</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>58.80829717544026</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>48.07797652863082</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>35.53919171536398</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>32.95322225515863</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>70.14463742542591</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G108" s="0" t="n">
+        <v>42.38999999999994</v>
+      </c>
+      <c r="H108" s="0" t="n">
+        <v>57.34585753585384</v>
+      </c>
+      <c r="I108" s="0" t="n">
         <v>66.69931425547463</v>
       </c>
-      <c r="H108" s="0" t="n">
-        <v>31.33464520739838</v>
-      </c>
-      <c r="I108" s="0" t="n">
-        <v>46.88237757331981</v>
-      </c>
       <c r="J108" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>34.65540617455232</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>32.13374437886039</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>65.04064148674203</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>68.40028665857186</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>48.07797652863081</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>35.53919171536398</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>66.69931425547453</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>66.69931425547463</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585383</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>46.88237757331981</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>36.44551564104448</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>35.53919171536397</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>30.5554179649063</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>61.84601339644776</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>65.04064148674192</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G111" s="0" t="n">
+        <v>41.33584915225259</v>
+      </c>
+      <c r="H111" s="0" t="n">
+        <v>55.91978571853326</v>
+      </c>
+      <c r="I111" s="0" t="n">
         <v>65.04064148674202</v>
       </c>
-      <c r="H111" s="0" t="n">
-        <v>33.79359853600701</v>
-      </c>
-      <c r="I111" s="0" t="n">
-        <v>45.71651066925455</v>
-      </c>
       <c r="J111" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>35.53919171536398</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C112" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>44.57963644236038</v>
+      </c>
+      <c r="F112" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="G112" s="0" t="n">
         <v>40.30791283646575</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>63.42321644873117</v>
-      </c>
-      <c r="E112" s="0" t="n">
-        <v>63.42321644873105</v>
-      </c>
-      <c r="F112" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G112" s="0" t="n">
-        <v>63.42321644873115</v>
-      </c>
       <c r="H112" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>54.52917733162497</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>44.57963644236034</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>36.44551564104448</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>35.53919171536397</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>30.5554179649063</v>
+        <v>43.47103390525297</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>41.33584915225257</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>65.04064148674203</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>61.84601339644765</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G113" s="0" t="n">
+        <v>41.33584915225258</v>
+      </c>
+      <c r="H113" s="0" t="n">
+        <v>53.1731504736137</v>
+      </c>
+      <c r="I113" s="0" t="n">
         <v>65.04064148674202</v>
       </c>
-      <c r="H113" s="0" t="n">
-        <v>35.53919171536392</v>
-      </c>
-      <c r="I113" s="0" t="n">
-        <v>45.71651066925455</v>
-      </c>
       <c r="J113" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>37.3749527276781</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C114" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>42.38999999999994</v>
+      </c>
+      <c r="F114" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="G114" s="0" t="n">
         <v>42.38999999999992</v>
       </c>
-      <c r="D114" s="0" t="n">
-        <v>66.69931425547465</v>
-      </c>
-      <c r="E114" s="0" t="n">
-        <v>63.42321644873105</v>
-      </c>
-      <c r="F114" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G114" s="0" t="n">
-        <v>66.69931425547463</v>
-      </c>
       <c r="H114" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>54.52917733162497</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>44.57963644236034</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>34.65540617455231</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>38.32809240934476</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>32.13374437886039</v>
+        <v>43.47103390525297</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>43.47103390525295</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>68.40028665857197</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>61.84601339644764</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>41.33584915225257</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853325</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>45.71651066925455</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>39.30553915192964</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>38.32809240934475</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>44.57963644236037</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>44.57963644236035</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>70.14463742542603</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>60.30803209303506</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>70.14463742542601</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>54.52917733162496</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>44.57963644236034</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>34.65540617455231</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>38.32809240934476</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>37.37495272767807</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>32.13374437886039</v>
+        <v>45.71651066925458</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>43.47103390525295</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>71.93347279529077</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>61.84601339644764</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>53.17315047361369</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>39.30553915192964</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>38.32809240934475</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>44.57963644236037</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>44.57963644236035</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>70.14463742542601</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>63.42321644873104</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>42.38999999999991</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>54.52917733162496</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>42.3899999999999</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>34.65540617455231</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>40.30791283646577</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>37.37495272767807</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>30.5554179649063</v>
+        <v>43.47103390525297</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>43.47103390525295</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>61.84601339644763</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>71.93347279529074</v>
+        <v>43.47103390525294</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>55.91978571853324</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>39.30553915192964</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>36.44551564104447</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>29.79556847797588</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>42.38999999999992</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>73.76792721884127</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>63.42321644873103</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>70.14463742542598</v>
+        <v>42.38999999999991</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>54.52917733162496</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>42.3899999999999</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>36.44551564104447</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>38.32809240934476</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>37.37495272767807</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>30.5554179649063</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>41.33584915225256</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>65.04064148674189</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>68.40028665857193</v>
+        <v>43.47103390525294</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>53.17315047361368</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>39.30553915192964</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>36.44551564104447</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>29.79556847797587</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>42.38999999999991</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>73.76792721884127</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>63.42321644873103</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>66.6993142554746</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>54.52917733162496</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>36.44551564104447</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>40.30791283646577</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>61.84601339644762</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>68.40028665857193</v>
+        <v>45.71651066925455</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853323</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>39.30553915192964</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>38.32809240934472</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>42.38999999999991</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>60.30803209303504</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>66.6993142554746</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>40.30791283646577</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="C125" s="0" t="n">
+        <v>29.05461486226052</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>39.30553915192962</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="G125" s="0" t="n">
         <v>43.47103390525294</v>
       </c>
-      <c r="D125" s="0" t="n">
-        <v>71.93347279529074</v>
-      </c>
-      <c r="E125" s="0" t="n">
-        <v>58.80829717544015</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>37.3749527276781</v>
-      </c>
-      <c r="G125" s="0" t="n">
-        <v>68.40028665857193</v>
-      </c>
       <c r="H125" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853323</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>41.3358491522526</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
+        <v>40.30791283646573</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>40.30791283646575</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>28.33208721687188</v>
+      </c>
+      <c r="D126" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E126" s="0" t="n">
         <v>38.32809240934473</v>
       </c>
-      <c r="B126" s="0" t="n">
-        <v>32.95322225515862</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>42.38999999999991</v>
-      </c>
-      <c r="D126" s="0" t="n">
-        <v>73.76792721884125</v>
-      </c>
-      <c r="E126" s="0" t="n">
-        <v>57.34585753585373</v>
-      </c>
       <c r="F126" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>66.6993142554746</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>60.30803209303515</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>40.30791283646577</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>75.64916407762412</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>58.80829717544015</v>
+        <v>37.37495272767807</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>65.04064148674199</v>
+        <v>45.71651066925455</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853322</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>58.80829717544026</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>39.30553915192964</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
+        <v>42.3899999999999</v>
+      </c>
+      <c r="B128" s="0" t="n">
         <v>38.32809240934473</v>
       </c>
-      <c r="B128" s="0" t="n">
-        <v>32.95322225515862</v>
-      </c>
       <c r="C128" s="0" t="n">
-        <v>44.57963644236035</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>77.57837642185535</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>57.34585753585373</v>
+        <v>36.44551564104445</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>63.42321644873113</v>
+        <v>46.88237757331981</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>54.52917733162494</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>57.34585753585384</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>32.95322225515858</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>40.30791283646577</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
+        <v>41.33584915225255</v>
+      </c>
+      <c r="B129" s="0" t="n">
         <v>37.37495272767808</v>
       </c>
-      <c r="B129" s="0" t="n">
-        <v>32.13374437886038</v>
-      </c>
       <c r="C129" s="0" t="n">
+        <v>27.62752732637607</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>35.53919171536396</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="G129" s="0" t="n">
         <v>45.71651066925455</v>
       </c>
-      <c r="D129" s="0" t="n">
-        <v>79.55678772703367</v>
-      </c>
-      <c r="E129" s="0" t="n">
-        <v>58.80829717544015</v>
-      </c>
-      <c r="F129" s="0" t="n">
-        <v>39.30553915192964</v>
-      </c>
-      <c r="G129" s="0" t="n">
-        <v>65.04064148674199</v>
-      </c>
       <c r="H129" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>55.91978571853321</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>39.30553915192961</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>39.30553915192964</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
+        <v>42.38999999999989</v>
+      </c>
+      <c r="B130" s="0" t="n">
         <v>36.44551564104446</v>
       </c>
-      <c r="B130" s="0" t="n">
-        <v>32.95322225515862</v>
-      </c>
       <c r="C130" s="0" t="n">
+        <v>28.33208721687188</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>36.44551564104445</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="G130" s="0" t="n">
         <v>46.88237757331981</v>
       </c>
-      <c r="D130" s="0" t="n">
-        <v>81.585652669849</v>
-      </c>
-      <c r="E130" s="0" t="n">
-        <v>60.30803209303504</v>
-      </c>
-      <c r="F130" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G130" s="0" t="n">
-        <v>63.42321644873113</v>
-      </c>
       <c r="H130" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>57.34585753585378</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>57.34585753585383</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>38.32809240934472</v>
+        <v>32.95322225515858</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>38.32809240934475</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>43.47103390525293</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>45.71651066925455</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>83.66625792387836</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>61.84601339644762</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>61.84601339644772</v>
+        <v>48.07797652863081</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>58.8082971754402</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>39.30553915192963</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>44.57963644236035</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>85.79992297557352</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>63.42321644873102</v>
+        <v>38.32809240934472</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>63.42321644873113</v>
+        <v>49.30406576485185</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>57.34585753585378</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>54.52917733162497</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>40.30791283646576</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
+        <v>43.47103390525293</v>
+      </c>
+      <c r="B133" s="0" t="n">
         <v>35.53919171536396</v>
       </c>
-      <c r="B133" s="0" t="n">
-        <v>32.13374437886038</v>
-      </c>
       <c r="C133" s="0" t="n">
-        <v>45.71651066925455</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>87.98800096105816</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>61.84601339644762</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>65.04064148674199</v>
+        <v>48.07797652863081</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>58.8082971754402</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>55.91978571853325</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>39.30553915192963</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="C134" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D134" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>36.44551564104444</v>
+      </c>
+      <c r="F134" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="G134" s="0" t="n">
         <v>46.88237757331981</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>85.79992297557351</v>
-      </c>
-      <c r="E134" s="0" t="n">
-        <v>63.42321644873102</v>
-      </c>
-      <c r="F134" s="0" t="n">
-        <v>36.44551564104448</v>
-      </c>
-      <c r="G134" s="0" t="n">
-        <v>66.6993142554746</v>
-      </c>
       <c r="H134" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>57.34585753585378</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>32.95322225515858</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>40.30791283646576</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
+        <v>45.71651066925454</v>
+      </c>
+      <c r="B135" s="0" t="n">
         <v>35.53919171536396</v>
       </c>
-      <c r="B135" s="0" t="n">
-        <v>30.55541796490629</v>
-      </c>
       <c r="C135" s="0" t="n">
-        <v>45.71651066925455</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>83.66625792387833</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>61.84601339644762</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>65.04064148674199</v>
+        <v>48.07797652863081</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>55.91978571853321</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>55.91978571853324</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>39.30553915192963</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>29.79556847797587</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>44.57963644236035</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>81.58565266984897</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>63.42321644873102</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>63.42321644873113</v>
+        <v>46.8823775733198</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>57.34585753585377</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>57.34585753585381</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>40.30791283646576</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
+        <v>45.71651066925454</v>
+      </c>
+      <c r="B137" s="0" t="n">
         <v>35.53919171536396</v>
       </c>
-      <c r="B137" s="0" t="n">
-        <v>29.05461486226055</v>
-      </c>
       <c r="C137" s="0" t="n">
-        <v>45.71651066925455</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>83.66625792387833</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>65.04064148674188</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>65.04064148674199</v>
+        <v>48.0779765286308</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>58.8082971754402</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>58.80829717544023</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>41.33584915225259</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>46.8823775733198</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>28.3320872168719</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>46.88237757331981</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>81.58565266984897</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>66.69931425547449</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>66.6993142554746</v>
+        <v>49.30406576485183</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>38.32809240934468</v>
+        <v>57.34585753585377</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>60.30803209303512</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>42.38999999999994</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.0779765286308</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>33.79359853600705</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>48.07797652863081</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>83.66625792387833</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>65.04064148674188</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>68.40028665857193</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>58.8082971754402</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>61.8460133964477</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>41.33584915225259</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>46.88237757331979</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>46.88237757331981</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>85.79992297557349</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>66.69931425547449</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>70.14463742542598</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>57.34585753585377</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>63.4232164487311</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>42.38999999999994</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.07797652863079</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>26.27053463926976</v>
+        <v>33.79359853600705</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>48.07797652863081</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>87.98800096105813</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>68.4002866585718</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>71.93347279529073</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>55.9197857185332</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>61.84601339644769</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>43.47103390525297</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
+        <v>49.30406576485183</v>
+      </c>
+      <c r="B142" s="0" t="n">
         <v>34.65540617455229</v>
       </c>
-      <c r="B142" s="0" t="n">
-        <v>26.94048837020099</v>
-      </c>
       <c r="C142" s="0" t="n">
-        <v>49.30406576485184</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>85.79992297557349</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>70.14463742542586</v>
+        <v>40.30791283646572</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>57.34585753585377</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>63.42321644873109</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>26.94048837020096</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>44.57963644236037</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.07797652863079</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>26.27053463926976</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>50.56142284809389</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>87.98800096105813</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>71.9334727952906</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>61.84601339644768</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>43.47103390525297</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>46.88237757331979</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>25.61724125968112</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>49.30406576485184</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>90.23187952426504</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>73.76792721884111</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>38.32809240934468</v>
+        <v>57.34585753585376</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>63.42321644873108</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>44.57963644236037</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>50.56142284809389</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>92.53298169695761</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>71.9334727952906</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>61.84601339644767</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>43.47103390525297</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>49.30406576485184</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>94.89276680119374</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>73.76792721884111</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>54.52917733162491</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>63.42321644873108</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>26.94048837020096</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>42.38999999999994</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>50.56142284809389</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>97.31273137480451</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>75.64916407762398</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>65.04064148674193</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>43.47103390525297</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>51.85084517403456</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>99.79441012047435</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>73.76792721884111</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>57.34585753585376</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>63.42321644873107</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>44.57963644236037</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>35.53919171536394</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>97.3127313748045</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>75.64916407762398</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>65.04064148674193</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>43.47103390525297</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>94.89276680119373</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>73.76792721884111</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>54.52917733162491</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>63.42321644873107</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>26.94048837020096</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>44.57963644236037</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>33.79359853600704</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>97.3127313748045</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>75.64916407762398</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>65.04064148674193</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>26.27053463926973</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>43.47103390525297</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>32.9532222551586</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>94.89276680119373</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>77.57837642185521</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>38.32809240934468</v>
+        <v>54.52917733162491</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>63.42321644873107</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>25.61724125968109</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>42.38999999999994</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>33.79359853600704</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>92.53298169695759</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>79.55678772703351</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>61.84601339644766</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>26.27053463926973</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>41.33584915225259</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>40.30791283646572</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>94.89276680119373</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>81.58565266984884</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>29.79556847797587</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>57.34585753585376</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>60.30803209303508</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>26.94048837020096</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>40.30791283646575</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>92.53298169695759</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>79.55678772703351</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>58.80829717544018</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>61.84601339644766</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>39.30553915192962</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>90.23187952426503</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>81.58565266984884</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>31.33464520739842</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>57.34585753585376</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>63.42321644873106</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>40.30791283646575</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>24.98019392326116</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>87.98800096105812</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>79.55678772703351</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>58.80829717544018</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>61.84601339644765</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>39.30553915192962</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>25.61724125968112</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>90.23187952426503</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>81.58565266984884</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>29.79556847797587</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>57.34585753585376</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>63.42321644873105</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>26.94048837020096</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>40.30791283646575</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>24.98019392326116</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>92.53298169695759</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>83.66625792387821</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>55.91978571853319</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>65.04064148674192</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>41.33584915225258</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>90.23187952426503</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>85.79992297557337</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>77.57837642185532</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>54.52917733162491</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>63.42321644873105</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>40.30791283646575</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>24.98019392326116</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>92.53298169695759</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>83.66625792387821</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>29.05461486226054</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>53.17315047361364</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>65.04064148674192</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>39.30553915192962</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="C162" s="0" t="n">
+        <v>25.6172412596811</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>42.38999999999988</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="G162" s="0" t="n">
         <v>51.85084517403454</v>
       </c>
-      <c r="D162" s="0" t="n">
-        <v>90.23187952426503</v>
-      </c>
-      <c r="E162" s="0" t="n">
-        <v>85.79992297557337</v>
-      </c>
-      <c r="F162" s="0" t="n">
-        <v>29.79556847797586</v>
-      </c>
-      <c r="G162" s="0" t="n">
-        <v>73.76792721884122</v>
-      </c>
       <c r="H162" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>63.42321644873105</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>40.30791283646575</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="C163" s="0" t="n">
+        <v>24.98019392326116</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>41.33584915225253</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="G163" s="0" t="n">
         <v>53.17315047361362</v>
       </c>
-      <c r="D163" s="0" t="n">
-        <v>92.53298169695759</v>
-      </c>
-      <c r="E163" s="0" t="n">
-        <v>87.98800096105801</v>
-      </c>
-      <c r="F163" s="0" t="n">
-        <v>29.05461486226054</v>
-      </c>
-      <c r="G163" s="0" t="n">
-        <v>71.93347279529071</v>
-      </c>
       <c r="H163" s="0" t="n">
-        <v>45.71651066925451</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>61.84601339644765</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>39.30553915192962</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="C164" s="0" t="n">
+        <v>24.3589886248158</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>42.38999999999987</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="G164" s="0" t="n">
         <v>51.85084517403454</v>
       </c>
-      <c r="D164" s="0" t="n">
-        <v>94.89276680119373</v>
-      </c>
-      <c r="E164" s="0" t="n">
-        <v>90.23187952426491</v>
-      </c>
-      <c r="F164" s="0" t="n">
-        <v>29.79556847797586</v>
-      </c>
-      <c r="G164" s="0" t="n">
-        <v>70.14463742542597</v>
-      </c>
       <c r="H164" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>49.30406576485183</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>60.30803209303507</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>38.32809240934473</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>23.75323140591706</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>92.53298169695759</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>87.98800096105801</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>30.55541796490628</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>45.71651066925451</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>58.80829717544017</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>37.37495272767807</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>24.3589886248158</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>94.89276680119373</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>85.79992297557337</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>46.88237757331977</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>57.34585753585375</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>38.32809240934473</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C167" s="0" t="n">
+        <v>24.98019392326116</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>43.47103390525291</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="G167" s="0" t="n">
         <v>50.56142284809387</v>
       </c>
-      <c r="D167" s="0" t="n">
-        <v>92.53298169695759</v>
-      </c>
-      <c r="E167" s="0" t="n">
-        <v>83.66625792387821</v>
-      </c>
-      <c r="F167" s="0" t="n">
-        <v>30.55541796490628</v>
-      </c>
-      <c r="G167" s="0" t="n">
-        <v>75.64916407762409</v>
-      </c>
       <c r="H167" s="0" t="n">
-        <v>45.71651066925451</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>55.91978571853318</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>39.30553915192961</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C168" s="0" t="n">
+        <v>24.3589886248158</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>42.38999999999987</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>54.52917733162501</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>51.85084517403454</v>
+      </c>
+      <c r="H168" s="0" t="n">
         <v>49.30406576485182</v>
       </c>
-      <c r="D168" s="0" t="n">
-        <v>90.23187952426503</v>
-      </c>
-      <c r="E168" s="0" t="n">
-        <v>81.58565266984884</v>
-      </c>
-      <c r="F168" s="0" t="n">
-        <v>29.79556847797586</v>
-      </c>
-      <c r="G168" s="0" t="n">
-        <v>77.57837642185532</v>
-      </c>
-      <c r="H168" s="0" t="n">
-        <v>46.88237757331977</v>
-      </c>
       <c r="I168" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>57.34585753585375</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>38.32809240934472</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>24.98019392326116</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>92.53298169695759</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>83.66625792387821</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>30.55541796490628</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>45.71651066925451</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>58.80829717544017</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>39.3055391519296</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>24.3589886248158</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>90.23187952426503</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>85.79992297557337</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>60.30803209303506</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>38.32809240934471</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>23.75323140591706</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>87.98800096105812</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>87.98800096105801</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>30.55541796490628</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>45.71651066925451</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>58.80829717544017</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>37.37495272767806</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>24.3589886248158</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>90.23187952426503</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>90.23187952426491</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>46.88237757331977</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>60.30803209303505</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>36.44551564104444</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C173" s="0" t="n">
+        <v>24.98019392326116</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>43.4710339052529</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="G173" s="0" t="n">
         <v>45.71651066925452</v>
       </c>
-      <c r="D173" s="0" t="n">
-        <v>87.98800096105812</v>
-      </c>
-      <c r="E173" s="0" t="n">
-        <v>92.53298169695748</v>
-      </c>
-      <c r="F173" s="0" t="n">
-        <v>29.05461486226053</v>
-      </c>
-      <c r="G173" s="0" t="n">
-        <v>68.40028665857191</v>
-      </c>
       <c r="H173" s="0" t="n">
-        <v>48.07797652863077</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>58.80829717544016</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>37.37495272767805</v>
@@ -52624,31 +52624,31 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>85.79992297557348</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>94.89276680119362</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>46.88237757331977</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="J174" s="0" t="n">
         <v>31.33464520739838</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>29.05461486226054</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>83.66625792387831</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>97.31273137480437</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>29.05461486226053</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>48.07797652863077</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>35.53919171536393</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C176" s="0" t="n">
+        <v>25.6172412596811</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>44.5796364423603</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="G176" s="0" t="n">
         <v>44.57963644236031</v>
       </c>
-      <c r="D176" s="0" t="n">
-        <v>81.58565266984894</v>
-      </c>
-      <c r="E176" s="0" t="n">
-        <v>94.8927668011936</v>
-      </c>
-      <c r="F176" s="0" t="n">
-        <v>28.33208721687189</v>
-      </c>
-      <c r="G176" s="0" t="n">
-        <v>66.69931425547459</v>
-      </c>
       <c r="H176" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>29.79556847797583</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>36.44551564104443</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C177" s="0" t="n">
+        <v>26.27053463926974</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>45.71651066925451</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="G177" s="0" t="n">
         <v>45.71651066925452</v>
       </c>
-      <c r="D177" s="0" t="n">
-        <v>83.66625792387831</v>
-      </c>
-      <c r="E177" s="0" t="n">
-        <v>92.53298169695746</v>
-      </c>
-      <c r="F177" s="0" t="n">
-        <v>27.62752732637608</v>
-      </c>
-      <c r="G177" s="0" t="n">
-        <v>68.40028665857191</v>
-      </c>
       <c r="H177" s="0" t="n">
-        <v>48.07797652863077</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="I177" s="0" t="n">
+        <v>55.91978571853317</v>
+      </c>
+      <c r="J177" s="0" t="n">
         <v>32.13374437886034</v>
-      </c>
-      <c r="J177" s="0" t="n">
-        <v>29.05461486226051</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>35.53919171536393</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C178" s="0" t="n">
+        <v>26.94048837020097</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>46.88237757331977</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="G178" s="0" t="n">
         <v>44.57963644236031</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>81.58565266984894</v>
-      </c>
-      <c r="E178" s="0" t="n">
-        <v>94.8927668011936</v>
-      </c>
-      <c r="F178" s="0" t="n">
-        <v>28.33208721687189</v>
-      </c>
-      <c r="G178" s="0" t="n">
-        <v>70.14463742542597</v>
-      </c>
       <c r="H178" s="0" t="n">
-        <v>46.88237757331977</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>29.79556847797583</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>36.44551564104443</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>79.55678772703361</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>97.31273137480436</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>48.07797652863077</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>29.05461486226051</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>35.53919171536393</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>29.79556847797583</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>81.58565266984894</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>94.89276680119359</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="I180" s="0" t="n">
+        <v>54.52917733162489</v>
+      </c>
+      <c r="J180" s="0" t="n">
         <v>32.95322225515857</v>
-      </c>
-      <c r="J180" s="0" t="n">
-        <v>29.79556847797583</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>34.65540617455227</v>

--- a/output/oil_price.xlsx
+++ b/output/oil_price.xlsx
@@ -390,22 +390,22 @@
         <v>43.47103390525304</v>
       </c>
       <c r="E1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="F1" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
-      <c r="F1" s="0" t="n">
+      <c r="G1" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="H1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="J1" s="0" t="n">
         <v>41.33584915225265</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>43.47103390525304</v>
       </c>
       <c r="K1" s="0" t="n">
         <v>43.47103390525304</v>
@@ -680,22 +680,22 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.39</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>44.57963644236044</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>42.39</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>44.57963644236044</v>
       </c>
       <c r="E2" s="0" t="n">
+        <v>44.57963644236044</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>42.39</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>44.57963644236044</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>42.39</v>
@@ -707,7 +707,7 @@
         <v>42.39</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>44.57963644236044</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>43.47103390525303</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C3" s="0" t="n">
         <v>45.71651066925465</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
+        <v>45.71651066925465</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>45.71651066925465</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>43.47103390525303</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>43.47103390525304</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>45.71651066925465</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>41.33584915225265</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>45.71651066925465</v>
@@ -1284,25 +1284,25 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
+        <v>44.57963644236044</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>42.38999999999999</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="C4" s="0" t="n">
         <v>46.88237757331991</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
+        <v>46.88237757331991</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>46.88237757331991</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>44.57963644236044</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>44.57963644236043</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>44.57963644236044</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>44.57963644236043</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>40.30791283646582</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>42.39</v>
@@ -1311,7 +1311,7 @@
         <v>42.39</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>46.88237757331991</v>
@@ -1586,25 +1586,25 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>45.71651066925464</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>45.71651066925464</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>48.07797652863091</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>43.47103390525303</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>45.71651066925465</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
       <c r="G5" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>43.47103390525304</v>
@@ -1613,7 +1613,7 @@
         <v>43.47103390525304</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>48.07797652863091</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
+        <v>46.88237757331991</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>40.30791283646581</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>49.30406576485195</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>44.57963644236043</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>49.30406576485195</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>42.38999999999999</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>42.38999999999999</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>44.57963644236043</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>42.38999999999999</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>40.30791283646581</v>
-      </c>
       <c r="H6" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.39</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>44.57963644236044</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>49.30406576485195</v>
@@ -2193,31 +2193,31 @@
         <v>45.71651066925464</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>50.561422848094</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>50.561422848094</v>
@@ -2495,31 +2495,31 @@
         <v>44.57963644236042</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>49.30406576485195</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>42.38999999999999</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>44.57963644236043</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>51.85084517403467</v>
@@ -2797,31 +2797,31 @@
         <v>43.47103390525302</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>53.17315047361376</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>45.71651066925464</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>53.17315047361376</v>
@@ -3096,31 +3096,31 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>46.88237757331991</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>42.38999999999999</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>42.39</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>40.3079128364658</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>53.17315047361376</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>41.33584915225264</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>37.37495272767813</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>55.91978571853332</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>46.88237757331991</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>44.57963644236043</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>54.52917733162504</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>42.39</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>57.3458575358539</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
+        <v>41.33584915225262</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>55.91978571853332</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
-      <c r="C13" s="0" t="n">
+      <c r="G13" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>43.47103390525304</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="J13" s="0" t="n">
         <v>43.47103390525302</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>41.33584915225264</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>37.37495272767813</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>43.47103390525303</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>39.30553915192966</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>55.91978571853332</v>
@@ -4304,34 +4304,34 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>57.3458575358539</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>44.57963644236043</v>
+        <v>42.39</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>54.52917733162504</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="B15" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="D15" s="0" t="n">
         <v>45.71651066925463</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
+        <v>55.91978571853332</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
       <c r="G15" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>53.17315047361375</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="B16" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="C16" s="0" t="n">
+        <v>42.38999999999997</v>
+      </c>
+      <c r="D16" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="E16" s="0" t="n">
+        <v>57.3458575358539</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
       <c r="G16" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="H16" s="0" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="I16" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>46.88237757331989</v>
-      </c>
       <c r="J16" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>51.85084517403467</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B17" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>45.71651066925463</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
       <c r="E17" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>58.80829717544032</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>53.17315047361375</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B18" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
       <c r="E18" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>57.34585753585389</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.39</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>40.30791283646579</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>51.85084517403467</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B19" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>58.80829717544031</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>41.33584915225265</v>
+      </c>
+      <c r="I19" s="0" t="n">
         <v>45.71651066925463</v>
       </c>
-      <c r="C19" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>37.37495272767812</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
       <c r="J19" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>53.17315047361375</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>60.3080320930352</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>54.52917733162503</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="C21" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>58.80829717544031</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="J21" s="0" t="n">
         <v>43.47103390525301</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>35.539191715364</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="G21" s="0" t="n">
-        <v>41.33584915225264</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <v>39.30553915192966</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>53.17315047361375</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>57.34585753585388</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>51.85084517403466</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>58.8082971754403</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>50.56142284809399</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>48.07797652863089</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>50.56142284809398</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>51.85084517403467</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>49.30406576485193</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>49.30406576485193</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>58.8082971754403</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>50.56142284809399</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>50.56142284809398</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>50.56142284809398</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>40.30791283646578</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>60.30803209303519</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>49.30406576485194</v>
+      </c>
+      <c r="H26" s="0" t="n">
         <v>40.3079128364658</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="I26" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>42.38999999999997</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>49.30406576485192</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>51.85084517403465</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>38.32809240934478</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>51.85084517403466</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B27" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>39.30553915192965</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>58.8082971754403</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>41.33584915225262</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>45.71651066925463</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>53.17315047361374</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>37.37495272767812</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>50.56142284809398</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>40.30791283646579</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>49.30406576485193</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>35.539191715364</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>37.37495272767811</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>58.8082971754403</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>43.47103390525299</v>
-      </c>
       <c r="I29" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>48.0779765286309</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>49.30406576485193</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="F31" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>45.71651066925464</v>
+      </c>
+      <c r="H31" s="0" t="n">
         <v>39.30553915192966</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>45.7165106692546</v>
-      </c>
       <c r="I31" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>50.56142284809398</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="B32" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>60.30803209303519</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="J32" s="0" t="n">
         <v>42.38999999999997</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>49.30406576485192</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>44.57963644236041</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>54.52917733162501</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>36.4455156410445</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>51.85084517403466</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>50.56142284809398</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>51.85084517403466</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="G34" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>42.38999999999997</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>36.4455156410445</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>51.85084517403466</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>35.539191715364</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>50.56142284809398</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>38.32809240934477</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>51.85084517403466</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="G36" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>34.65540617455233</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>42.38999999999997</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>38.32809240934478</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>49.30406576485193</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>37.37495272767811</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>33.79359853600707</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>61.84601339644777</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>33.79359853600708</v>
+      </c>
+      <c r="I37" s="0" t="n">
         <v>41.33584915225263</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>45.7165106692546</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
       <c r="J37" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>50.56142284809398</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
+        <v>36.44551564104447</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>32.95322225515862</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>51.85084517403466</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>63.42321644873117</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>34.65540617455233</v>
+      </c>
+      <c r="I38" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>46.88237757331987</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>46.88237757331988</v>
-      </c>
-      <c r="D38" s="0" t="n">
+      <c r="J38" s="0" t="n">
         <v>40.30791283646579</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>46.88237757331986</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>36.4455156410445</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>51.85084517403466</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>65.04064148674205</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>33.79359853600708</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>50.56142284809398</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>66.69931425547466</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>32.95322225515864</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934477</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>49.30406576485193</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>35.53919171536399</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>68.40028665857199</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>32.1337443788604</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>48.0779765286309</v>
@@ -12760,31 +12760,31 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>51.85084517403466</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>66.69931425547466</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>32.95322225515864</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>36.44551564104449</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>53.17315047361375</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>68.40028665857199</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>35.53919171536399</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>48.0779765286309</v>
@@ -13364,31 +13364,31 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>31.33464520739842</v>
       </c>
       <c r="D44" s="0" t="n">
+        <v>51.85084517403466</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>66.69931425547466</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="G44" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="F44" s="0" t="n">
+      <c r="H44" s="0" t="n">
         <v>34.65540617455233</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>46.88237757331986</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>46.88237757331986</v>
-      </c>
       <c r="I44" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>36.44551564104449</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>43.47103390525296</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>35.53919171536399</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="D45" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>68.40028665857199</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="G45" s="0" t="n">
         <v>41.33584915225262</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>35.539191715364</v>
-      </c>
-      <c r="G45" s="0" t="n">
-        <v>45.7165106692546</v>
-      </c>
       <c r="H45" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>37.37495272767811</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>48.0779765286309</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>44.57963644236036</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C46" s="0" t="n">
+        <v>31.33464520739842</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>51.85084517403466</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>70.14463742542604</v>
+      </c>
+      <c r="F46" s="0" t="n">
         <v>44.57963644236041</v>
       </c>
-      <c r="D46" s="0" t="n">
+      <c r="G46" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="G46" s="0" t="n">
-        <v>44.57963644236039</v>
-      </c>
       <c r="H46" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>49.30406576485193</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>43.47103390525296</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>35.53919171536399</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="D47" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>71.93347279529078</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>41.33584915225262</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="F47" s="0" t="n">
+      <c r="H47" s="0" t="n">
+        <v>33.79359853600707</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>53.17315047361374</v>
+      </c>
+      <c r="J47" s="0" t="n">
         <v>37.37495272767811</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>45.7165106692546</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>48.07797652863087</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>55.9197857185333</v>
-      </c>
-      <c r="J47" s="0" t="n">
-        <v>35.53919171536398</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>50.56142284809398</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>44.57963644236036</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>31.33464520739842</v>
       </c>
       <c r="D48" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>73.76792721884129</v>
+      </c>
+      <c r="F48" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>38.32809240934477</v>
-      </c>
       <c r="G48" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>40.30791283646579</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>51.85084517403466</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>45.71651066925457</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>30.55541796490628</v>
       </c>
       <c r="D49" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>75.64916407762416</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="G49" s="0" t="n">
         <v>41.33584915225262</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="F49" s="0" t="n">
+      <c r="H49" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>55.9197857185333</v>
+      </c>
+      <c r="J49" s="0" t="n">
         <v>37.37495272767811</v>
-      </c>
-      <c r="G49" s="0" t="n">
-        <v>43.47103390525298</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <v>50.56142284809395</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
-      <c r="J49" s="0" t="n">
-        <v>37.3749527276781</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>53.17315047361375</v>
@@ -15176,31 +15176,31 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>46.88237757331983</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E50" s="0" t="n">
+        <v>77.5783764218554</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>44.5796364423604</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="F50" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="G50" s="0" t="n">
-        <v>42.38999999999994</v>
-      </c>
       <c r="H50" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>38.32809240934476</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
+        <v>48.07797652863083</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>35.53919171536399</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>30.55541796490628</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>75.64916407762416</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>45.71651066925461</v>
+      </c>
+      <c r="G51" s="0" t="n">
         <v>43.47103390525301</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>41.33584915225262</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="G51" s="0" t="n">
-        <v>41.33584915225259</v>
-      </c>
       <c r="H51" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>55.9197857185333</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>49.30406576485186</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E52" s="0" t="n">
+        <v>73.76792721884129</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>44.5796364423604</v>
+      </c>
+      <c r="G52" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
-      <c r="G52" s="0" t="n">
-        <v>40.30791283646576</v>
-      </c>
       <c r="H52" s="0" t="n">
-        <v>54.52917733162499</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>57.34585753585388</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>48.07797652863083</v>
       </c>
       <c r="B53" s="0" t="n">
+        <v>37.37495272767811</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>75.64916407762416</v>
+      </c>
+      <c r="F53" s="0" t="n">
         <v>45.71651066925461</v>
       </c>
-      <c r="C53" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="D53" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="E53" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>35.53919171536399</v>
-      </c>
       <c r="G53" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>58.8082971754403</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>46.88237757331982</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>77.5783764218554</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>60.30803209303519</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>57.34585753585387</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>48.07797652863082</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C55" s="0" t="n">
+        <v>30.55541796490627</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>75.64916407762416</v>
+      </c>
+      <c r="F55" s="0" t="n">
         <v>45.71651066925461</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
       <c r="G55" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>43.471033905253</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>58.80829717544029</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>46.88237757331981</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C56" s="0" t="n">
+        <v>29.79556847797585</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>77.5783764218554</v>
+      </c>
+      <c r="F56" s="0" t="n">
         <v>46.88237757331987</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>38.32809240934477</v>
-      </c>
-      <c r="E56" s="0" t="n">
-        <v>46.88237757331988</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="G56" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>60.30803209303519</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>57.34585753585387</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
+        <v>48.07797652863081</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>30.55541796490627</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>79.55678772703371</v>
+      </c>
+      <c r="F57" s="0" t="n">
         <v>48.07797652863088</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="G57" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>37.37495272767809</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>58.80829717544029</v>
+      </c>
+      <c r="J57" s="0" t="n">
         <v>41.33584915225261</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="D57" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>39.30553915192962</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>48.07797652863087</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>61.84601339644777</v>
-      </c>
-      <c r="J57" s="0" t="n">
-        <v>35.53919171536398</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>58.80829717544029</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>49.30406576485185</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C58" s="0" t="n">
+        <v>29.79556847797585</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>77.5783764218554</v>
+      </c>
+      <c r="F58" s="0" t="n">
         <v>46.88237757331987</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>40.30791283646579</v>
-      </c>
-      <c r="E58" s="0" t="n">
+      <c r="G58" s="0" t="n">
         <v>44.57963644236041</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>38.32809240934473</v>
-      </c>
       <c r="H58" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>57.34585753585387</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>48.07797652863081</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>29.05461486226053</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="E59" s="0" t="n">
+        <v>75.64916407762416</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>45.71651066925461</v>
+      </c>
+      <c r="G59" s="0" t="n">
         <v>43.471033905253</v>
       </c>
-      <c r="F59" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>37.37495272767808</v>
-      </c>
       <c r="H59" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>61.84601339644777</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>43.471033905253</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>55.9197857185333</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485185</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C60" s="0" t="n">
+        <v>29.79556847797585</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>77.5783764218554</v>
+      </c>
+      <c r="F60" s="0" t="n">
         <v>46.88237757331987</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>40.30791283646579</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="G60" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>57.34585753585387</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>50.5614228480939</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C61" s="0" t="n">
+        <v>30.55541796490627</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>79.55678772703371</v>
+      </c>
+      <c r="F61" s="0" t="n">
         <v>45.71651066925461</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>41.33584915225262</v>
-      </c>
-      <c r="E61" s="0" t="n">
-        <v>43.47103390525299</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="G61" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>61.84601339644777</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>43.471033905253</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>58.80829717544029</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>51.85084517403457</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E62" s="0" t="n">
+        <v>81.58565266984904</v>
+      </c>
+      <c r="F62" s="0" t="n">
         <v>44.5796364423604</v>
       </c>
-      <c r="F62" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="G62" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>57.34585753585387</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361365</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C63" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>79.55678772703369</v>
+      </c>
+      <c r="F63" s="0" t="n">
         <v>45.71651066925461</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E63" s="0" t="n">
+      <c r="G63" s="0" t="n">
+        <v>43.471033905253</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>41.33584915225257</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>61.84601339644777</v>
+      </c>
+      <c r="J63" s="0" t="n">
         <v>43.47103390525299</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>37.37495272767808</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>48.07797652863087</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>65.04064148674205</v>
-      </c>
-      <c r="J63" s="0" t="n">
-        <v>37.3749527276781</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>55.9197857185333</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>51.85084517403456</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>77.57837642185538</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>36.44551564104446</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>63.42321644873118</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>54.52917733162501</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361364</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C65" s="0" t="n">
+        <v>32.13374437886036</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>75.64916407762415</v>
+      </c>
+      <c r="F65" s="0" t="n">
         <v>45.71651066925461</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="E65" s="0" t="n">
-        <v>41.3358491522526</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
       <c r="G65" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>65.04064148674205</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>53.17315047361374</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C66" s="0" t="n">
+        <v>32.95322225515859</v>
+      </c>
+      <c r="D66" s="0" t="n">
+        <v>51.85084517403466</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>73.76792721884128</v>
+      </c>
+      <c r="F66" s="0" t="n">
         <v>44.5796364423604</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>38.32809240934477</v>
-      </c>
-      <c r="E66" s="0" t="n">
-        <v>40.30791283646577</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
       <c r="G66" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>66.69931425547466</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>51.85084517403465</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361363</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>50.56142284809398</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>71.93347279529077</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>65.04064148674205</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>53.17315047361374</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C68" s="0" t="n">
+        <v>32.95322225515859</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>73.76792721884128</v>
+      </c>
+      <c r="F68" s="0" t="n">
         <v>44.5796364423604</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>40.30791283646579</v>
-      </c>
-      <c r="E68" s="0" t="n">
-        <v>42.38999999999994</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
       <c r="G68" s="0" t="n">
-        <v>38.32809240934472</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>66.69931425547466</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>54.52917733162501</v>
@@ -20914,31 +20914,31 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>75.64916407762415</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>39.3055391519296</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>68.40028665857199</v>
+        <v>65.04064148674205</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>39.30553915192964</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>77.57837642185538</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>66.69931425547466</v>
+        <v>63.42321644873118</v>
       </c>
       <c r="J70" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>57.34585753585387</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>75.64916407762415</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>68.40028665857199</v>
+        <v>65.04064148674205</v>
       </c>
       <c r="J71" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>55.9197857185333</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>73.76792721884128</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>70.14463742542604</v>
+        <v>63.42321644873118</v>
       </c>
       <c r="J72" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>57.34585753585387</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>55.91978571853318</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>71.93347279529077</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>41.33584915225255</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>71.93347279529078</v>
+        <v>65.04064148674205</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>58.80829717544029</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>73.76792721884128</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>42.38999999999989</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>73.76792721884129</v>
+        <v>66.69931425547466</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934475</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>57.34585753585387</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>55.91978571853318</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>71.93347279529077</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>68.40028665857199</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>58.80829717544029</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>73.76792721884128</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>40.30791283646572</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>73.76792721884129</v>
+        <v>70.14463742542604</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>57.34585753585387</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>55.91978571853318</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D77" s="0" t="n">
         <v>43.47103390525301</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>75.64916407762415</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="G77" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>39.30553915192959</v>
       </c>
-      <c r="H77" s="0" t="n">
-        <v>45.7165106692546</v>
-      </c>
       <c r="I77" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>71.93347279529078</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>55.9197857185333</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>54.52917733162499</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>77.57837642185538</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>73.76792721884129</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>54.52917733162501</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>45.71651066925459</v>
+        <v>79.55678772703369</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>71.93347279529078</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>55.9197857185333</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>77.57837642185538</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>70.14463742542603</v>
+        <v>73.76792721884129</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>57.34585753585387</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>45.71651066925459</v>
+        <v>75.64916407762415</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>71.93347279529077</v>
+        <v>75.64916407762416</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>58.80829717544029</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>73.76792721884128</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>73.76792721884128</v>
+        <v>73.76792721884129</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>57.34585753585387</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>30.55541796490627</v>
       </c>
       <c r="D83" s="0" t="n">
         <v>45.71651066925462</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>45.71651066925459</v>
+        <v>75.64916407762415</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>75.64916407762415</v>
+        <v>71.93347279529078</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>58.80829717544029</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B84" s="0" t="n">
+        <v>38.32809240934476</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>31.3346452073984</v>
+      </c>
+      <c r="D84" s="0" t="n">
+        <v>46.88237757331988</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>77.57837642185538</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>51.85084517403464</v>
+      </c>
+      <c r="G84" s="0" t="n">
+        <v>40.30791283646577</v>
+      </c>
+      <c r="H84" s="0" t="n">
+        <v>40.30791283646571</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>70.14463742542603</v>
+      </c>
+      <c r="J84" s="0" t="n">
         <v>38.32809240934473</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>54.52917733162499</v>
-      </c>
-      <c r="D84" s="0" t="n">
-        <v>44.57963644236041</v>
-      </c>
-      <c r="E84" s="0" t="n">
-        <v>46.88237757331985</v>
-      </c>
-      <c r="F84" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="G84" s="0" t="n">
-        <v>36.44551564104443</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>42.38999999999995</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>73.76792721884128</v>
-      </c>
-      <c r="J84" s="0" t="n">
-        <v>36.44551564104448</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>60.30803209303519</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D85" s="0" t="n">
         <v>45.71651066925462</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>48.07797652863086</v>
+        <v>79.55678772703369</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>71.93347279529077</v>
+        <v>68.40028665857197</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>61.84601339644777</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>54.5291773316249</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D86" s="0" t="n">
         <v>44.57963644236041</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>49.30406576485189</v>
+        <v>77.57837642185538</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>73.76792721884128</v>
+        <v>70.14463742542603</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>63.42321644873117</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>39.30553915192961</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>50.56142284809394</v>
+        <v>79.55678772703369</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>71.93347279529077</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>37.37495272767807</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>65.04064148674205</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>38.32809240934472</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C88" s="0" t="n">
+        <v>29.79556847797584</v>
+      </c>
+      <c r="D88" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>77.57837642185538</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>49.30406576485191</v>
       </c>
-      <c r="D88" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="E88" s="0" t="n">
-        <v>51.85084517403462</v>
-      </c>
-      <c r="F88" s="0" t="n">
-        <v>36.44551564104449</v>
-      </c>
       <c r="G88" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>44.57963644236039</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>70.14463742542601</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>36.44551564104445</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>66.69931425547466</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>53.1731504736137</v>
+        <v>79.55678772703369</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>68.40028665857196</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>68.40028665857199</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>31.33464520739839</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>54.52917733162497</v>
+        <v>81.58565266984903</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>34.65540617455229</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>66.69931425547466</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>35.53919171536395</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>55.91978571853325</v>
+        <v>79.55678772703368</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>68.40028665857194</v>
+        <v>68.40028665857196</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>65.04064148674205</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>54.52917733162496</v>
+        <v>77.57837642185537</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>34.65540617455229</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>66.69931425547466</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>55.91978571853324</v>
+        <v>79.55678772703368</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>68.40028665857194</v>
+        <v>68.40028665857196</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>65.04064148674205</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>54.52917733162499</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>54.52917733162496</v>
+        <v>81.58565266984901</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J94" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>63.42321644873118</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>55.91978571853327</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>55.91978571853323</v>
+        <v>79.55678772703367</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>68.40028665857196</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>61.84601339644777</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>54.52917733162499</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>81.585652669849</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>54.529177331625</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>60.30803209303519</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>55.91978571853326</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>55.91978571853323</v>
+        <v>79.55678772703365</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>68.40028665857196</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>58.80829717544029</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>54.52917733162498</v>
+        <v>31.33464520739839</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>54.52917733162494</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>70.14463742542601</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>57.34585753585387</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>55.91978571853326</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="D99" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>75.64916407762411</v>
+      </c>
+      <c r="F99" s="0" t="n">
         <v>50.56142284809396</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>55.91978571853322</v>
-      </c>
-      <c r="F99" s="0" t="n">
-        <v>33.79359853600707</v>
-      </c>
       <c r="G99" s="0" t="n">
+        <v>43.47103390525298</v>
+      </c>
+      <c r="H99" s="0" t="n">
+        <v>50.56142284809386</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>68.40028665857196</v>
+      </c>
+      <c r="J99" s="0" t="n">
         <v>33.79359853600702</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <v>37.37495272767808</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>61.84601339644773</v>
-      </c>
-      <c r="J99" s="0" t="n">
-        <v>39.30553915192964</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>55.9197857185333</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>57.34585753585382</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>57.34585753585379</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>60.30803209303514</v>
+        <v>70.14463742542601</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>57.34585753585387</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>55.91978571853325</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>43.471033905253</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>58.80829717544021</v>
+        <v>79.55678772703365</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>58.80829717544025</v>
+        <v>71.93347279529075</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>58.80829717544029</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>54.52917733162496</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>60.3080320930351</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>54.529177331625</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>57.34585753585383</v>
+        <v>73.76792721884127</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>57.34585753585387</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>53.17315047361369</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="E103" s="0" t="n">
-        <v>61.84601339644767</v>
+        <v>79.55678772703365</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>55.91978571853326</v>
+        <v>71.93347279529075</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>58.80829717544029</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>42.38999999999989</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>51.8508451740346</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>60.3080320930351</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>54.529177331625</v>
       </c>
       <c r="G104" s="0" t="n">
+        <v>42.38999999999994</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>46.88237757331978</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>73.76792721884127</v>
+      </c>
+      <c r="J104" s="0" t="n">
         <v>34.65540617455226</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>38.32809240934473</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>57.34585753585382</v>
-      </c>
-      <c r="J104" s="0" t="n">
-        <v>40.30791283646577</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>57.34585753585387</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>50.56142284809393</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>43.471033905253</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>75.64916407762411</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="G105" s="0" t="n">
+        <v>41.33584915225259</v>
+      </c>
+      <c r="H105" s="0" t="n">
+        <v>48.07797652863078</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>71.93347279529075</v>
+      </c>
+      <c r="J105" s="0" t="n">
         <v>35.53919171536393</v>
-      </c>
-      <c r="H105" s="0" t="n">
-        <v>37.37495272767807</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>55.91978571853325</v>
-      </c>
-      <c r="J105" s="0" t="n">
-        <v>41.3358491522526</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>58.80829717544029</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>49.30406576485188</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>57.34585753585378</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>54.529177331625</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>54.52917733162496</v>
+        <v>70.144637425426</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>57.34585753585387</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>50.56142284809393</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>79.55678772703365</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>53.17315047361369</v>
+        <v>68.40028665857194</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>55.9197857185333</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>42.38999999999989</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>51.8508451740346</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>57.34585753585378</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>51.8508451740346</v>
+        <v>70.144637425426</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>54.52917733162501</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>53.17315047361367</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>55.91978571853321</v>
+        <v>79.55678772703365</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>53.17315047361368</v>
+        <v>71.93347279529074</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>55.9197857185333</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>42.38999999999988</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>54.52917733162495</v>
+        <v>32.95322225515858</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>57.34585753585377</v>
+        <v>77.57837642185534</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>29.79556847797587</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>51.8508451740346</v>
+        <v>73.76792721884125</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>54.52917733162501</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>33.79359853600705</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>53.17315047361367</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>79.55678772703365</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>29.05461486226055</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>53.17315047361367</v>
+        <v>75.64916407762412</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>55.9197857185333</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>51.85084517403459</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="D112" s="0" t="n">
         <v>49.30406576485191</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>57.34585753585377</v>
+        <v>81.58565266984898</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>28.3320872168719</v>
+        <v>63.42321644873116</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>54.52917733162495</v>
+        <v>73.76792721884125</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>54.52917733162501</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>50.56142284809391</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>79.55678772703364</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>53.17315047361367</v>
+        <v>71.93347279529074</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>53.17315047361374</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>49.30406576485186</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D114" s="0" t="n">
         <v>49.30406576485191</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>60.30803209303508</v>
+        <v>81.58565266984897</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>63.42321644873116</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>54.52917733162495</v>
+        <v>70.14463742542598</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>51.85084517403465</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>37.37495272767807</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>48.07797652863083</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>61.84601339644766</v>
+        <v>79.55678772703364</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>55.91978571853323</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>53.17315047361374</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>60.30803209303518</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>49.30406576485186</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>60.30803209303508</v>
+        <v>77.57837642185532</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>28.3320872168719</v>
+        <v>63.42321644873116</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>54.52917733162494</v>
+        <v>73.76792721884124</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>51.85084517403465</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>48.07797652863083</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>58.80829717544019</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>29.05461486226054</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>55.91978571853322</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>53.17315047361374</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>49.30406576485186</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>57.34585753585377</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>28.3320872168719</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>54.52917733162494</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>51.85084517403465</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>48.07797652863083</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>27.62752732637609</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>55.91978571853321</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>53.17315047361374</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>42.38999999999991</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>46.88237757331982</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>26.94048837020099</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>57.34585753585378</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>51.85084517403465</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B121" s="0" t="n">
+        <v>43.47103390525294</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>33.79359853600701</v>
+      </c>
+      <c r="D121" s="0" t="n">
+        <v>48.07797652863087</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>71.93347279529071</v>
+      </c>
+      <c r="F121" s="0" t="n">
+        <v>65.04064148674202</v>
+      </c>
+      <c r="G121" s="0" t="n">
+        <v>41.33584915225259</v>
+      </c>
+      <c r="H121" s="0" t="n">
         <v>48.07797652863078</v>
       </c>
-      <c r="C121" s="0" t="n">
-        <v>48.07797652863082</v>
-      </c>
-      <c r="D121" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="E121" s="0" t="n">
-        <v>55.91978571853319</v>
-      </c>
-      <c r="F121" s="0" t="n">
-        <v>27.62752732637609</v>
-      </c>
-      <c r="G121" s="0" t="n">
-        <v>39.30553915192957</v>
-      </c>
-      <c r="H121" s="0" t="n">
-        <v>39.30553915192959</v>
-      </c>
       <c r="I121" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>50.56142284809398</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>49.30406576485186</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>60.30803209303509</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>49.30406576485193</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>43.47103390525294</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>50.5614228480939</v>
+        <v>35.53919171536392</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>41.33584915225253</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>58.8082971754402</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>48.07797652863089</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>42.38999999999991</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>51.85084517403457</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>57.34585753585376</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>42.38999999999989</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>60.30803209303508</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>46.88237757331989</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B125" s="0" t="n">
+        <v>41.33584915225256</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>37.37495272767803</v>
+      </c>
+      <c r="D125" s="0" t="n">
+        <v>48.07797652863087</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>68.40028665857191</v>
+      </c>
+      <c r="F125" s="0" t="n">
+        <v>61.84601339644774</v>
+      </c>
+      <c r="G125" s="0" t="n">
+        <v>39.30553915192963</v>
+      </c>
+      <c r="H125" s="0" t="n">
         <v>48.07797652863078</v>
       </c>
-      <c r="C125" s="0" t="n">
-        <v>53.17315047361365</v>
-      </c>
-      <c r="D125" s="0" t="n">
-        <v>43.47103390525299</v>
-      </c>
-      <c r="E125" s="0" t="n">
-        <v>55.91978571853319</v>
-      </c>
-      <c r="F125" s="0" t="n">
-        <v>26.27053463926975</v>
-      </c>
-      <c r="G125" s="0" t="n">
-        <v>41.33584915225253</v>
-      </c>
-      <c r="H125" s="0" t="n">
-        <v>43.47103390525292</v>
-      </c>
       <c r="I125" s="0" t="n">
-        <v>61.84601339644766</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>45.71651066925462</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>42.3899999999999</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>54.52917733162493</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>25.61724125968111</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>44.57963644236033</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>60.30803209303508</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>46.88237757331989</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>58.80829717544016</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>41.33584915225255</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>53.17315047361365</v>
+        <v>35.53919171536392</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>24.98019392326117</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>41.33584915225253</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>58.80829717544019</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>39.30553915192961</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>48.07797652863089</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>54.52917733162493</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>57.34585753585376</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>25.61724125968111</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>42.38999999999989</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>57.34585753585377</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>38.32809240934472</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>46.88237757331989</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>55.91978571853321</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>24.98019392326117</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>48.07797652863089</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>57.34585753585374</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>54.52917733162492</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>25.61724125968111</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>44.57963644236033</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>46.88237757331989</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>55.91978571853317</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>53.17315047361365</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>24.98019392326117</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>35.53919171536395</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>48.07797652863089</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>51.85084517403456</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>57.34585753585376</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>24.35898862481581</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>44.57963644236033</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>46.88237757331989</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>53.17315047361364</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>23.75323140591707</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>55.91978571853319</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>45.71651066925462</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>49.30406576485192</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>38.32809240934475</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>63.42321644873111</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>24.35898862481581</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>46.88237757331989</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>53.17315047361364</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>23.75323140591707</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>53.17315047361364</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>45.71651066925462</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>24.35898862481581</v>
+        <v>60.30803209303515</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>46.88237757331989</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>24.98019392326117</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>53.17315047361363</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>45.71651066925462</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>25.61724125968111</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>54.52917733162491</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>44.57963644236042</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>65.040641486742</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>35.53919171536396</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>53.17315047361363</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>45.71651066925462</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>28.33208721687186</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>25.61724125968111</v>
+        <v>66.69931425547462</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>38.32809240934469</v>
+        <v>34.6554061745523</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>46.88237757331989</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>68.40028665857194</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>33.79359853600705</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>45.71651066925462</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>25.6172412596811</v>
+        <v>66.69931425547462</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>34.65540617455229</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>44.57963644236042</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>50.56142284809397</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>24.98019392326117</v>
+        <v>65.040641486742</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>43.47103390525301</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>31.33464520739837</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>24.3589886248158</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>31.33464520739837</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>42.38999999999997</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>32.13374437886033</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>24.98019392326117</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J145" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>41.33584915225262</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>32.95322225515856</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>51.85084517403463</v>
       </c>
       <c r="E146" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>25.6172412596811</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J146" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>31.33464520739837</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>42.38999999999997</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>32.13374437886033</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>65.040641486742</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>43.47103390525301</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>31.33464520739837</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>51.85084517403463</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>77.57837642185532</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>66.69931425547462</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>44.57963644236041</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>32.13374437886033</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>79.55678772703364</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>65.040641486742</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>43.471033905253</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>32.95322225515856</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>38.32809240934472</v>
+        <v>54.52917733162499</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>81.58565266984897</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>49.30406576485183</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>28.33208721687186</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>42.38999999999997</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>33.793598536007</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>55.91978571853327</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>58.80829717544016</v>
+        <v>79.55678772703364</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>48.07797652863079</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>43.471033905253</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>46.88237757331979</v>
       </c>
       <c r="C152" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>38.32809240934472</v>
+        <v>57.34585753585384</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>60.30803209303505</v>
+        <v>77.57837642185532</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>28.33208721687186</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>42.38999999999997</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>37.37495272767806</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>61.84601339644762</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>29.05461486226053</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>43.471033905253</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C154" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>54.52917733162498</v>
       </c>
       <c r="E154" s="0" t="n">
-        <v>60.30803209303505</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>28.33208721687186</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>44.5796364423604</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>35.53919171536395</v>
+        <v>53.1731504736137</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>58.80829717544016</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>43.47103390525299</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>51.85084517403462</v>
       </c>
       <c r="E156" s="0" t="n">
-        <v>60.30803209303505</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J156" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>44.5796364423604</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>50.56142284809394</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>58.80829717544016</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>30.55541796490627</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>45.7165106692546</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>46.88237757331979</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>49.30406576485189</v>
       </c>
       <c r="E158" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>46.88237757331986</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>37.37495272767802</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>50.56142284809394</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>58.80829717544016</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>65.040641486742</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>30.55541796490627</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>48.07797652863087</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>51.85084517403462</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>66.69931425547462</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>46.88237757331986</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>37.37495272767802</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>53.1731504736137</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>65.040641486742</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>32.13374437886035</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>30.55541796490624</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>48.07797652863087</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>54.52917733162497</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>63.42321644873114</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>31.33464520739839</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>29.79556847797582</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>46.88237757331986</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>37.37495272767802</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>55.91978571853325</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>61.84601339644773</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>32.13374437886035</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>29.0546148622605</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>45.7165106692546</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="C164" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>60.30803209303514</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>28.33208721687186</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>44.5796364423604</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192956</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>55.91978571853324</v>
       </c>
       <c r="E165" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>61.84601339644772</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>32.13374437886035</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="J165" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>27.62752732637605</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>43.47103390525299</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C166" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>36.44551564104444</v>
+        <v>54.52917733162496</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>60.30803209303514</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>31.33464520739839</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>63.42321644873111</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>26.94048837020095</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>42.38999999999995</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>37.37495272767802</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>55.91978571853323</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>61.84601339644772</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>61.8460133964477</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>27.62752732637605</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>41.3358491522526</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>46.88237757331979</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="E168" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F168" s="0" t="n">
+        <v>63.42321644873113</v>
+      </c>
+      <c r="G168" s="0" t="n">
         <v>29.79556847797584</v>
       </c>
-      <c r="G168" s="0" t="n">
-        <v>31.33464520739837</v>
-      </c>
       <c r="H168" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>60.30803209303512</v>
       </c>
       <c r="J168" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>26.94048837020095</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>42.38999999999995</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>37.37495272767802</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>35.53919171536394</v>
+        <v>58.80829717544022</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>65.04064148674199</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>58.80829717544022</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>26.27053463926972</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>41.3358491522526</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>44.57963644236031</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>63.42321644873111</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>66.6993142554746</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>31.33464520739839</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>60.30803209303511</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>25.61724125968108</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>42.38999999999995</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>55.91978571853323</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>68.40028665857193</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>61.84601339644769</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>26.27053463926972</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>41.3358491522526</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>70.14463742542598</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>32.95322225515856</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>60.30803209303511</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>25.61724125968108</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>40.30791283646577</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>55.91978571853329</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>58.80829717544022</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>58.80829717544022</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>26.27053463926972</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>41.33584915225259</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>60.3080320930351</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>73.76792721884124</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>32.95322225515856</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>26.94048837020095</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>40.30791283646576</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>58.80829717544021</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>75.64916407762411</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>58.80829717544022</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>27.62752732637605</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>41.33584915225259</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>57.34585753585373</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>57.34585753585379</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>73.76792721884124</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>26.94048837020095</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>40.30791283646575</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>35.53919171536391</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>55.91978571853321</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>75.64916407762411</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>29.05461486226051</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>58.80829717544022</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>27.62752732637605</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>41.33584915225258</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>57.34585753585373</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>54.52917733162493</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>73.76792721884124</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>32.95322225515856</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>26.94048837020095</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>40.30791283646575</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>53.17315047361373</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>55.91978571853316</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>53.17315047361361</v>
+        <v>37.37495272767802</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>55.91978571853321</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>27.62752732637606</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>55.91978571853322</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>27.62752732637605</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>39.30553915192962</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>57.34585753585373</v>
+        <v>44.57963644236032</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>51.85084517403453</v>
+        <v>36.44551564104441</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>57.34585753585377</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>28.33208721687187</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>57.34585753585379</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>26.94048837020095</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>38.32809240934473</v>

--- a/output/oil_price.xlsx
+++ b/output/oil_price.xlsx
@@ -378,10 +378,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="C1" s="0" t="n">
         <v>43.47103390525304</v>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>42.39</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>44.57963644236044</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>44.57963644236044</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
+        <v>41.33584915225265</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>43.47103390525304</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>43.47103390525303</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>45.71651066925465</v>
@@ -1284,10 +1284,10 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.39</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>42.39</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>46.88237757331991</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>45.71651066925465</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>45.71651066925464</v>
@@ -1888,10 +1888,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>46.88237757331991</v>
+        <v>42.39</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>42.39</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>46.8823775733199</v>
@@ -2190,10 +2190,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45.71651066925464</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>44.57963644236042</v>
@@ -2794,10 +2794,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>43.47103390525302</v>
@@ -3096,10 +3096,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.39</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>44.57963644236042</v>
@@ -3398,10 +3398,10 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>45.71651066925462</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.39</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>38.32809240934479</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>44.57963644236042</v>
@@ -4002,10 +4002,10 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>43.47103390525301</v>
@@ -4304,10 +4304,10 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.39</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>36.44551564104452</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>42.38999999999997</v>
@@ -4606,10 +4606,10 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>39.30553915192967</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>43.47103390525301</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>42.39</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>38.32809240934479</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>42.38999999999997</v>
@@ -5210,10 +5210,10 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>43.47103390525301</v>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.39</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>36.44551564104452</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>44.57963644236041</v>
@@ -5814,10 +5814,10 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>43.471033905253</v>
@@ -6116,10 +6116,10 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>38.32809240934479</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>42.38999999999997</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>43.471033905253</v>
@@ -6720,10 +6720,10 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.57963644236043</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>38.32809240934479</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>42.38999999999997</v>
@@ -7022,10 +7022,10 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925464</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>41.33584915225261</v>
@@ -7324,10 +7324,10 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>38.32809240934479</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>42.38999999999997</v>
@@ -7626,10 +7626,10 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>41.33584915225261</v>
@@ -7928,10 +7928,10 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>36.44551564104452</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>40.30791283646578</v>
@@ -8230,10 +8230,10 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>35.53919171536401</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>39.30553915192965</v>
@@ -8532,10 +8532,10 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>36.44551564104451</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>38.32809240934476</v>
@@ -8834,10 +8834,10 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>37.37495272767813</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>37.37495272767811</v>
@@ -9136,10 +9136,10 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>36.44551564104451</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>38.32809240934476</v>
@@ -9438,10 +9438,10 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>35.53919171536401</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>37.37495272767811</v>
@@ -9740,10 +9740,10 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>36.44551564104449</v>
@@ -10042,10 +10042,10 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>35.53919171536398</v>
@@ -10344,10 +10344,10 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>36.44551564104448</v>
@@ -10646,10 +10646,10 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>35.53919171536398</v>
@@ -10948,10 +10948,10 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>34.65540617455231</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>34.65540617455232</v>
@@ -11250,10 +11250,10 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>35.539191715364</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>33.79359853600707</v>
@@ -11552,10 +11552,10 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>36.44551564104447</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>32.95322225515862</v>
@@ -11854,10 +11854,10 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>35.539191715364</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>32.13374437886038</v>
@@ -12156,10 +12156,10 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>32.95322225515862</v>
@@ -12458,10 +12458,10 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>33.79359853600708</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>33.79359853600706</v>
@@ -12760,10 +12760,10 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>32.95322225515864</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>32.95322225515861</v>
@@ -13062,10 +13062,10 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>41.33584915225258</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>32.1337443788604</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>32.13374437886038</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>42.38999999999992</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>31.33464520739844</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>31.33464520739842</v>
@@ -13666,10 +13666,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>43.47103390525296</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>32.1337443788604</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>32.13374437886038</v>
@@ -13968,10 +13968,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>44.57963644236036</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>31.33464520739844</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>31.33464520739842</v>
@@ -14270,10 +14270,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>43.47103390525296</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>32.1337443788604</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>30.55541796490629</v>
@@ -14572,10 +14572,10 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>44.57963644236036</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>32.95322225515864</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>31.33464520739842</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>45.71651066925457</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>33.79359853600707</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>46.88237757331983</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>34.65540617455233</v>
@@ -15478,10 +15478,10 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>48.07797652863083</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>30.55541796490628</v>
@@ -15780,10 +15780,10 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>49.30406576485186</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>31.33464520739841</v>
@@ -16082,10 +16082,10 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>48.07797652863083</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>32.13374437886039</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>32.13374437886036</v>
@@ -16384,10 +16384,10 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>46.88237757331982</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>31.33464520739841</v>
@@ -16686,10 +16686,10 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>48.07797652863082</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>32.13374437886039</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>30.55541796490627</v>
@@ -16988,10 +16988,10 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>46.88237757331981</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>29.79556847797585</v>
@@ -17290,10 +17290,10 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>48.07797652863081</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>32.13374437886039</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>30.55541796490627</v>
@@ -17592,10 +17592,10 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>49.30406576485185</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>29.79556847797585</v>
@@ -17894,10 +17894,10 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>48.07797652863081</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>29.05461486226053</v>
@@ -18196,10 +18196,10 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>49.30406576485185</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>29.79556847797585</v>
@@ -18498,10 +18498,10 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>50.5614228480939</v>
+        <v>39.30553915192965</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>30.55541796490627</v>
@@ -18800,10 +18800,10 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>51.85084517403457</v>
+        <v>40.30791283646578</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>31.3346452073984</v>
@@ -19102,7 +19102,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>53.17315047361365</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>35.53919171536398</v>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>51.85084517403456</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>34.65540617455232</v>
@@ -19706,7 +19706,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>53.17315047361364</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>33.79359853600707</v>
@@ -20008,10 +20008,10 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>32.95322225515859</v>
@@ -20310,10 +20310,10 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>53.17315047361363</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>33.79359853600703</v>
@@ -20612,10 +20612,10 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>32.95322225515859</v>
@@ -20914,10 +20914,10 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>50.56142284809388</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>32.13374437886036</v>
@@ -21216,10 +21216,10 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>32.95322225515859</v>
@@ -21518,10 +21518,10 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>32.13374437886036</v>
@@ -21820,10 +21820,10 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>31.3346452073984</v>
@@ -22122,10 +22122,10 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>55.91978571853318</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>32.13374437886036</v>
@@ -22424,10 +22424,10 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>31.3346452073984</v>
@@ -22726,10 +22726,10 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>55.91978571853318</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>32.13374437886036</v>
@@ -23028,10 +23028,10 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>32.95322225515859</v>
@@ -23330,10 +23330,10 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>55.91978571853318</v>
+        <v>50.56142284809396</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>32.13374437886036</v>
@@ -23632,10 +23632,10 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>51.85084517403464</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>31.3346452073984</v>
@@ -23934,10 +23934,10 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>32.13374437886036</v>
@@ -24236,10 +24236,10 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>54.529177331625</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>32.95322225515859</v>
@@ -24538,10 +24538,10 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>32.13374437886036</v>
@@ -24840,10 +24840,10 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>31.3346452073984</v>
@@ -25142,10 +25142,10 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>30.55541796490627</v>
@@ -25444,10 +25444,10 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>31.3346452073984</v>
@@ -25746,10 +25746,10 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>30.55541796490626</v>
@@ -26048,10 +26048,10 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>54.5291773316249</v>
+        <v>54.529177331625</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>29.79556847797584</v>
@@ -26350,10 +26350,10 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>29.05461486226052</v>
@@ -26652,10 +26652,10 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>51.85084517403455</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>29.79556847797584</v>
@@ -26954,10 +26954,10 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>30.55541796490626</v>
@@ -27256,10 +27256,10 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>57.34585753585386</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>29.79556847797587</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>31.33464520739839</v>
@@ -27558,10 +27558,10 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>30.55541796490626</v>
@@ -27860,10 +27860,10 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739842</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>29.79556847797584</v>
@@ -28162,10 +28162,10 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>58.80829717544028</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>29.05461486226052</v>
@@ -28464,10 +28464,10 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>31.33464520739842</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>29.79556847797584</v>
@@ -28766,10 +28766,10 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>30.55541796490626</v>
@@ -29068,10 +29068,10 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>29.79556847797584</v>
@@ -29370,10 +29370,10 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>37.3749527276781</v>
+        <v>30.55541796490628</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>30.55541796490626</v>
@@ -29672,10 +29672,10 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>36.44551564104448</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>31.33464520739839</v>
@@ -29974,10 +29974,10 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>29.05461486226054</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>30.55541796490625</v>
@@ -30276,10 +30276,10 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>29.79556847797583</v>
@@ -30578,10 +30578,10 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>29.05461486226054</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>30.55541796490625</v>
@@ -30880,10 +30880,10 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>28.33208721687189</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>29.79556847797583</v>
@@ -31182,10 +31182,10 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>29.05461486226054</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>29.05461486226051</v>
@@ -31484,10 +31484,10 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>29.79556847797583</v>
@@ -31786,10 +31786,10 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>29.05461486226053</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>30.55541796490625</v>
@@ -32088,10 +32088,10 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>28.33208721687189</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>31.33464520739838</v>
@@ -32390,10 +32390,10 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>65.040641486742</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>27.62752732637608</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>32.13374437886034</v>
@@ -32692,10 +32692,10 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547462</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>32.95322225515861</v>
+        <v>26.94048837020098</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>31.33464520739838</v>
@@ -32994,10 +32994,10 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>68.40028665857194</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>26.27053463926975</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>32.13374437886034</v>
@@ -33296,10 +33296,10 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>70.144637425426</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>32.95322225515861</v>
+        <v>26.94048837020098</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>32.95322225515858</v>
@@ -33598,10 +33598,10 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>68.40028665857194</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>33.79359853600705</v>
+        <v>27.62752732637608</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>33.79359853600702</v>
@@ -33900,10 +33900,10 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>70.144637425426</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>34.6554061745523</v>
+        <v>28.33208721687189</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>34.65540617455226</v>
@@ -34202,10 +34202,10 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>71.93347279529074</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>27.62752732637608</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>33.79359853600701</v>
@@ -34504,10 +34504,10 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>70.14463742542598</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>36.44551564104446</v>
+        <v>26.94048837020098</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>34.65540617455225</v>
@@ -34806,10 +34806,10 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>26.27053463926975</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>33.79359853600701</v>
@@ -35108,10 +35108,10 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>26.94048837020098</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>32.95322225515857</v>
@@ -35410,10 +35410,10 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>39.30553915192961</v>
+        <v>26.27053463926975</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>32.13374437886034</v>
@@ -35712,10 +35712,10 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>40.30791283646574</v>
+        <v>26.94048837020098</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>32.95322225515857</v>
@@ -36014,10 +36014,10 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>41.33584915225256</v>
+        <v>26.27053463926975</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>33.79359853600701</v>
@@ -36316,10 +36316,10 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>42.38999999999991</v>
+        <v>25.61724125968111</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>32.95322225515857</v>
@@ -36618,10 +36618,10 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>33.79359853600701</v>
@@ -36920,10 +36920,10 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>44.57963644236035</v>
+        <v>26.94048837020098</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>34.65540617455225</v>
@@ -37222,10 +37222,10 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>35.53919171536392</v>
@@ -37524,10 +37524,10 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>42.38999999999991</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>36.44551564104442</v>
@@ -37826,10 +37826,10 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>41.33584915225256</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>37.37495272767803</v>
@@ -38128,10 +38128,10 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>42.3899999999999</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>36.44551564104442</v>
@@ -38430,10 +38430,10 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>58.80829717544016</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>35.53919171536392</v>
@@ -38732,10 +38732,10 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>34.65540617455225</v>
@@ -39034,10 +39034,10 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>33.79359853600701</v>
@@ -39336,10 +39336,10 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>57.34585753585374</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>38.32809240934471</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>32.95322225515857</v>
@@ -39638,10 +39638,10 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>55.91978571853317</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>32.13374437886034</v>
@@ -39940,10 +39940,10 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>31.33464520739838</v>
@@ -40242,10 +40242,10 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>30.55541796490625</v>
@@ -40544,10 +40544,10 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>54.52917733162489</v>
+        <v>66.69931425547459</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>31.33464520739838</v>
@@ -40846,10 +40846,10 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>53.17315047361362</v>
+        <v>65.04064148674198</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>30.55541796490624</v>
@@ -41148,10 +41148,10 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>51.85084517403454</v>
+        <v>63.42321644873111</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>29.79556847797582</v>
@@ -41450,10 +41450,10 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>61.8460133964477</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>29.0546148622605</v>
@@ -41752,10 +41752,10 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>63.4232164487311</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>29.79556847797582</v>
@@ -42054,10 +42054,10 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>50.56142284809387</v>
+        <v>65.04064148674196</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>29.0546148622605</v>
@@ -42356,10 +42356,10 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>66.69931425547458</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>28.33208721687186</v>
@@ -42658,10 +42658,10 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>65.04064148674196</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>29.0546148622605</v>
@@ -42960,10 +42960,10 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>66.69931425547458</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>29.79556847797582</v>
@@ -43262,10 +43262,10 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>65.04064148674196</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>30.55541796490624</v>
@@ -43564,10 +43564,10 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>63.4232164487311</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>31.33464520739837</v>
@@ -43866,10 +43866,10 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>65.04064148674196</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>32.13374437886033</v>
@@ -44168,10 +44168,10 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>63.4232164487311</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>42.38999999999988</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>32.95322225515856</v>
@@ -44470,10 +44470,10 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>61.84601339644769</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>32.13374437886033</v>
@@ -44772,10 +44772,10 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>49.30406576485182</v>
+        <v>60.30803209303511</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>42.38999999999988</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>31.33464520739837</v>
@@ -45074,10 +45074,10 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>61.84601339644769</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>32.13374437886033</v>
@@ -45376,10 +45376,10 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>63.42321644873109</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>32.95322225515856</v>
@@ -45678,10 +45678,10 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>61.84601339644768</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>33.793598536007</v>
@@ -45980,10 +45980,10 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>63.42321644873108</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>34.65540617455225</v>
@@ -46282,10 +46282,10 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>65.04064148674195</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>35.53919171536391</v>
@@ -46584,10 +46584,10 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>66.69931425547456</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>34.65540617455225</v>
@@ -46886,10 +46886,10 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>65.04064148674195</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>30.55541796490626</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>35.53919171536391</v>
@@ -47188,10 +47188,10 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>66.69931425547456</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>29.79556847797584</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>36.44551564104441</v>
@@ -47490,10 +47490,10 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>68.40028665857187</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>35.53919171536391</v>
@@ -47792,10 +47792,10 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>70.14463742542593</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C158" s="0" t="n">
         <v>36.44551564104441</v>
@@ -48094,10 +48094,10 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>68.40028665857187</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>37.37495272767802</v>
@@ -48396,10 +48396,10 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>66.69931425547455</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C160" s="0" t="n">
         <v>36.44551564104441</v>
@@ -48698,10 +48698,10 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>68.40028665857186</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>37.37495272767802</v>
@@ -49000,10 +49000,10 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>70.14463742542591</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>36.44551564104441</v>
@@ -49302,10 +49302,10 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>68.40028665857186</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>37.37495272767802</v>
@@ -49604,10 +49604,10 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>70.14463742542591</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>42.38999999999988</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>38.32809240934468</v>
@@ -49906,10 +49906,10 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>71.93347279529065</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>39.30553915192956</v>
@@ -50208,10 +50208,10 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>73.76792721884117</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>38.32809240934468</v>
@@ -50510,10 +50510,10 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>71.93347279529065</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>37.37495272767802</v>
@@ -50812,10 +50812,10 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>70.14463742542591</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>46.88237757331979</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>36.44551564104441</v>
@@ -51114,10 +51114,10 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>68.40028665857186</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>37.37495272767802</v>
@@ -51416,10 +51416,10 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>66.69931425547453</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>36.44551564104441</v>
@@ -51718,10 +51718,10 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>65.04064148674192</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>29.05461486226052</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>35.53919171536391</v>
@@ -52020,10 +52020,10 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>66.69931425547453</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>28.33208721687188</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>34.65540617455225</v>
@@ -52322,10 +52322,10 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>65.04064148674192</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>35.53919171536391</v>
@@ -52624,10 +52624,10 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>63.42321644873105</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>34.65540617455225</v>
@@ -52926,10 +52926,10 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>61.84601339644765</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>27.62752732637607</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>35.53919171536391</v>
@@ -53228,10 +53228,10 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>60.30803209303507</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>34.65540617455225</v>
@@ -53530,10 +53530,10 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>61.84601339644765</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>35.53919171536391</v>
@@ -53832,10 +53832,10 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>60.30803209303507</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>26.94048837020097</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>36.44551564104441</v>
@@ -54134,10 +54134,10 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>58.80829717544017</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>45.71651066925453</v>
+        <v>26.27053463926974</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>37.37495272767802</v>
@@ -54436,10 +54436,10 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>60.30803209303506</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>44.57963644236032</v>
+        <v>25.6172412596811</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>36.44551564104441</v>

--- a/output/oil_price.xlsx
+++ b/output/oil_price.xlsx
@@ -378,7 +378,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>41.33584915225265</v>
@@ -387,7 +387,7 @@
         <v>43.47103390525304</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="E1" s="0" t="n">
         <v>43.47103390525304</v>
@@ -396,16 +396,16 @@
         <v>41.33584915225265</v>
       </c>
       <c r="G1" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="H1" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="I1" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
       <c r="J1" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="K1" s="0" t="n">
         <v>43.47103390525304</v>
@@ -680,34 +680,34 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
+        <v>44.57963644236044</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>40.30791283646582</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="C2" s="0" t="n">
         <v>42.39</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>44.57963644236044</v>
-      </c>
       <c r="D2" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.39</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>44.57963644236044</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>42.39</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>40.30791283646582</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>44.57963644236044</v>
@@ -982,34 +982,34 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
+        <v>43.47103390525303</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="C3" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>45.71651066925465</v>
-      </c>
       <c r="D3" s="0" t="n">
-        <v>45.71651066925465</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>45.71651066925465</v>
+        <v>43.47103390525303</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>45.71651066925465</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>45.71651066925465</v>
@@ -1284,34 +1284,34 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>42.39</v>
+        <v>44.57963644236043</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>42.39</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>46.88237757331991</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>46.88237757331991</v>
+        <v>44.57963644236044</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>46.88237757331991</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>44.57963644236044</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>44.57963644236044</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>42.39</v>
-      </c>
       <c r="J4" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>44.57963644236043</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>46.88237757331991</v>
@@ -1586,34 +1586,34 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>45.71651066925465</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>43.47103390525303</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>43.47103390525304</v>
-      </c>
-      <c r="C5" s="0" t="n">
+      <c r="G5" s="0" t="n">
+        <v>41.33584915225265</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>43.47103390525303</v>
+      </c>
+      <c r="J5" s="0" t="n">
         <v>45.71651066925464</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>45.71651066925465</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>45.71651066925465</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>43.47103390525304</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>43.47103390525304</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>39.30553915192967</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>48.07797652863091</v>
@@ -1888,34 +1888,34 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>42.39</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>42.39</v>
+        <v>38.32809240934479</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>46.88237757331991</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>49.30406576485195</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="F6" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>40.30791283646582</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>44.57963644236043</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>44.57963644236043</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>44.57963644236044</v>
-      </c>
       <c r="J6" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>49.30406576485195</v>
@@ -2190,34 +2190,34 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>45.71651066925464</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>43.47103390525303</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>50.561422848094</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="F7" s="0" t="n">
+        <v>41.33584915225265</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>37.37495272767814</v>
+      </c>
+      <c r="I7" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>45.71651066925465</v>
-      </c>
       <c r="J7" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="K7" s="0" t="n">
         <v>50.561422848094</v>
@@ -2492,34 +2492,34 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>44.57963644236043</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>40.30791283646581</v>
+      </c>
+      <c r="F8" s="0" t="n">
         <v>40.30791283646582</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>40.30791283646582</v>
-      </c>
-      <c r="C8" s="0" t="n">
+      <c r="G8" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>51.85084517403467</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>42.38999999999999</v>
-      </c>
-      <c r="G8" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>40.30791283646582</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>44.57963644236043</v>
-      </c>
       <c r="J8" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="K8" s="0" t="n">
         <v>51.85084517403467</v>
@@ -2794,34 +2794,34 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>37.37495272767814</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="F9" s="0" t="n">
         <v>41.33584915225265</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="D9" s="0" t="n">
+      <c r="G9" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>39.30553915192968</v>
+      </c>
+      <c r="I9" s="0" t="n">
         <v>45.71651066925463</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>53.17315047361376</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>43.47103390525302</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
       <c r="J9" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>53.17315047361376</v>
@@ -3096,34 +3096,34 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>36.44551564104452</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>46.8823775733199</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>42.39</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>40.30791283646582</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="G10" s="0" t="n">
+        <v>40.30791283646581</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>38.32809240934479</v>
+      </c>
+      <c r="I10" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>51.85084517403467</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>42.38999999999999</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
       <c r="J10" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>54.52917733162504</v>
@@ -3398,34 +3398,34 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>53.17315047361376</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>41.33584915225264</v>
+        <v>43.47103390525304</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>37.37495272767814</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>55.91978571853332</v>
@@ -3700,34 +3700,34 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>36.44551564104452</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>49.30406576485194</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>42.39</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>38.32809240934479</v>
-      </c>
-      <c r="C12" s="0" t="n">
+      <c r="G12" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>36.44551564104452</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>46.88237757331989</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>54.52917733162504</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="G12" s="0" t="n">
-        <v>49.30406576485194</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>49.30406576485194</v>
-      </c>
       <c r="J12" s="0" t="n">
-        <v>42.38999999999998</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="K12" s="0" t="n">
         <v>57.3458575358539</v>
@@ -4002,34 +4002,34 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>35.53919171536401</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>48.07797652863091</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>43.47103390525304</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>37.37495272767814</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="D13" s="0" t="n">
+      <c r="G13" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>35.53919171536401</v>
+      </c>
+      <c r="I13" s="0" t="n">
         <v>45.71651066925463</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>55.91978571853332</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="G13" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>43.47103390525304</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
       <c r="J13" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>55.91978571853332</v>
@@ -4304,31 +4304,31 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>42.39</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>36.44551564104452</v>
+        <v>36.44551564104451</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="D14" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>44.57963644236044</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>36.44551564104451</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>46.88237757331989</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>57.3458575358539</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="G14" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>46.8823775733199</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>44.57963644236042</v>
@@ -4606,34 +4606,34 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>37.37495272767813</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="D15" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>43.47103390525303</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>37.37495272767813</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>37.37495272767813</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>48.0779765286309</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>45.71651066925463</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>55.91978571853332</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>41.33584915225263</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>43.47103390525304</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <v>43.47103390525301</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>53.17315047361375</v>
@@ -4908,34 +4908,34 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>42.39</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>36.44551564104451</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>36.44551564104451</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>36.44551564104451</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="J16" s="0" t="n">
         <v>46.88237757331989</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>57.3458575358539</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="G16" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>42.39</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>42.38999999999997</v>
       </c>
       <c r="K16" s="0" t="n">
         <v>51.85084517403467</v>
@@ -5210,34 +5210,34 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>41.33584915225265</v>
+        <v>43.471033905253</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>37.37495272767813</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>45.71651066925463</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>58.80829717544032</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>37.37495272767813</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>37.37495272767813</v>
       </c>
       <c r="I17" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="J17" s="0" t="n">
         <v>45.71651066925463</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>53.17315047361375</v>
@@ -5512,34 +5512,34 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>42.39</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>36.44551564104452</v>
+        <v>36.44551564104451</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>57.34585753585389</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>42.39</v>
+        <v>36.44551564104451</v>
       </c>
       <c r="I18" s="0" t="n">
+        <v>49.30406576485193</v>
+      </c>
+      <c r="J18" s="0" t="n">
         <v>46.88237757331989</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <v>40.30791283646579</v>
       </c>
       <c r="K18" s="0" t="n">
         <v>51.85084517403467</v>
@@ -5814,34 +5814,34 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>35.53919171536401</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>50.56142284809399</v>
       </c>
       <c r="D19" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>35.53919171536401</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>50.56142284809398</v>
+      </c>
+      <c r="J19" s="0" t="n">
         <v>48.0779765286309</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>58.80829717544031</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="G19" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
-      <c r="H19" s="0" t="n">
-        <v>41.33584915225265</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>45.71651066925463</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>53.17315047361375</v>
@@ -6116,34 +6116,34 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>34.65540617455234</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>49.30406576485194</v>
       </c>
       <c r="D20" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>34.65540617455234</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>49.30406576485193</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>60.3080320930352</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>46.88237757331989</v>
-      </c>
-      <c r="G20" s="0" t="n">
-        <v>49.30406576485194</v>
-      </c>
-      <c r="H20" s="0" t="n">
-        <v>40.30791283646582</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>46.88237757331989</v>
-      </c>
       <c r="J20" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>54.52917733162503</v>
@@ -6418,34 +6418,34 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>45.71651066925465</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>37.37495272767814</v>
+        <v>33.79359853600709</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>48.07797652863091</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>58.80829717544031</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>48.07797652863089</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>37.37495272767813</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>39.30553915192968</v>
+        <v>33.79359853600709</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>48.0779765286309</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>48.0779765286309</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>53.17315047361375</v>
@@ -6720,34 +6720,34 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>44.57963644236043</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>38.32809240934479</v>
+        <v>34.65540617455234</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.8823775733199</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>57.34585753585388</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>49.30406576485194</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>40.30791283646581</v>
+        <v>34.65540617455234</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>46.88237757331989</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331989</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>51.85084517403466</v>
@@ -7022,34 +7022,34 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
+        <v>45.71651066925461</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>33.79359853600709</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>45.71651066925464</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>39.30553915192968</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
       <c r="D23" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>41.33584915225264</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>37.37495272767813</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>35.53919171536401</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>45.71651066925463</v>
+      </c>
+      <c r="J23" s="0" t="n">
         <v>48.0779765286309</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>58.8082971754403</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>48.07797652863089</v>
-      </c>
-      <c r="G23" s="0" t="n">
-        <v>50.56142284809399</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>39.30553915192967</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>48.0779765286309</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>43.47103390525301</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>50.56142284809398</v>
@@ -7324,34 +7324,34 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
+        <v>44.5796364423604</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>34.65540617455234</v>
+      </c>
+      <c r="C24" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>38.32809240934479</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
       <c r="D24" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>40.30791283646581</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>36.4455156410445</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="J24" s="0" t="n">
         <v>46.88237757331989</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>60.30803209303519</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>46.88237757331989</v>
-      </c>
-      <c r="G24" s="0" t="n">
-        <v>51.85084517403467</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>42.38999999999997</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>49.30406576485193</v>
@@ -7626,34 +7626,34 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>33.79359853600709</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>35.539191715364</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>45.71651066925463</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>37.37495272767814</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>48.0779765286309</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>58.8082971754403</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="G25" s="0" t="n">
-        <v>50.56142284809399</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>39.30553915192967</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>43.47103390525301</v>
       </c>
       <c r="K25" s="0" t="n">
         <v>50.56142284809398</v>
@@ -7928,34 +7928,34 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
+        <v>42.38999999999996</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>32.95322225515864</v>
+      </c>
+      <c r="C26" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>36.44551564104452</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>40.30791283646578</v>
-      </c>
       <c r="D26" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>60.30803209303519</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F26" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>36.44551564104449</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="J26" s="0" t="n">
         <v>46.88237757331989</v>
-      </c>
-      <c r="G26" s="0" t="n">
-        <v>49.30406576485194</v>
-      </c>
-      <c r="H26" s="0" t="n">
-        <v>40.3079128364658</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>42.38999999999997</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>51.85084517403466</v>
@@ -8230,34 +8230,34 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>33.79359853600708</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="D27" s="0" t="n">
         <v>43.47103390525302</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>35.53919171536401</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>39.30553915192965</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
       <c r="E27" s="0" t="n">
-        <v>58.8082971754403</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>48.07797652863089</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>35.53919171536399</v>
       </c>
       <c r="I27" s="0" t="n">
+        <v>43.47103390525302</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>48.0779765286309</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>50.56142284809398</v>
@@ -8532,34 +8532,34 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
+        <v>42.38999999999996</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>32.95322225515864</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>42.38999999999997</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>34.65540617455233</v>
+      </c>
+      <c r="I28" s="0" t="n">
         <v>42.38999999999998</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>36.44551564104451</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>38.32809240934476</v>
-      </c>
-      <c r="D28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>49.30406576485193</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>60.30803209303519</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>49.30406576485194</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>40.30791283646579</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>49.30406576485193</v>
@@ -8834,34 +8834,34 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B29" s="0" t="n">
+        <v>33.79359853600707</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>45.71651066925462</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>37.37495272767813</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>37.37495272767811</v>
-      </c>
-      <c r="D29" s="0" t="n">
+      <c r="G29" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>33.79359853600707</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="J29" s="0" t="n">
         <v>48.0779765286309</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>58.8082971754403</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>48.0779765286309</v>
@@ -9136,34 +9136,34 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>36.44551564104451</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="D30" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>34.65540617455233</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="J30" s="0" t="n">
         <v>49.30406576485193</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H30" s="0" t="n">
-        <v>38.32809240934478</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <v>42.38999999999997</v>
       </c>
       <c r="K30" s="0" t="n">
         <v>49.30406576485193</v>
@@ -9438,34 +9438,34 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>35.53919171536401</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="D31" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>35.53919171536399</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="J31" s="0" t="n">
         <v>50.56142284809398</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <v>45.71651066925464</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>39.30553915192966</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>48.0779765286309</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>50.56142284809398</v>
@@ -9740,34 +9740,34 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="D32" s="0" t="n">
         <v>49.30406576485193</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>60.30803209303519</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>46.8823775733199</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J32" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>49.30406576485193</v>
       </c>
       <c r="K32" s="0" t="n">
         <v>51.85084517403466</v>
@@ -10042,34 +10042,34 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="C33" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>48.07797652863089</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>39.30553915192967</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="H33" s="0" t="n">
         <v>35.53919171536398</v>
       </c>
-      <c r="D33" s="0" t="n">
+      <c r="I33" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="J33" s="0" t="n">
         <v>50.56142284809398</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>58.80829717544029</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <v>48.07797652863091</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>37.37495272767812</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>45.71651066925463</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <v>41.33584915225262</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>50.56142284809398</v>
@@ -10344,34 +10344,34 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="B34" s="0" t="n">
+        <v>32.95322225515862</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>44.57963644236041</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G34" s="0" t="n">
         <v>38.32809240934478</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="H34" s="0" t="n">
         <v>36.44551564104448</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="I34" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="J34" s="0" t="n">
         <v>51.85084517403466</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>57.34585753585387</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>36.4455156410445</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>42.38999999999997</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>51.85084517403466</v>
@@ -10646,34 +10646,34 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>43.471033905253</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>48.07797652863089</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>53.17315047361375</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>50.56142284809398</v>
@@ -10948,34 +10948,34 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="D36" s="0" t="n">
+        <v>46.88237757331989</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>36.44551564104448</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="J36" s="0" t="n">
         <v>51.85084517403466</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>60.30803209303519</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>51.85084517403465</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>34.65540617455233</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>42.38999999999997</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>49.30406576485193</v>
@@ -11250,34 +11250,34 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>30.55541796490629</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="D37" s="0" t="n">
         <v>45.71651066925462</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>35.539191715364</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>33.79359853600707</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
       <c r="E37" s="0" t="n">
-        <v>61.84601339644777</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>48.07797652863091</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>41.33584915225263</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>53.17315047361375</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>50.56142284809398</v>
@@ -11552,34 +11552,34 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>44.57963644236039</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="D38" s="0" t="n">
+        <v>44.57963644236042</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>42.38999999999999</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>36.44551564104448</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="J38" s="0" t="n">
         <v>51.85084517403466</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>63.42321644873117</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="G38" s="0" t="n">
-        <v>46.8823775733199</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>34.65540617455233</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>42.38999999999998</v>
-      </c>
-      <c r="J38" s="0" t="n">
-        <v>40.30791283646579</v>
       </c>
       <c r="K38" s="0" t="n">
         <v>51.85084517403466</v>
@@ -11854,34 +11854,34 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>41.33584915225261</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>65.04064148674205</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>48.07797652863089</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>45.71651066925464</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>53.17315047361375</v>
       </c>
       <c r="K39" s="0" t="n">
         <v>50.56142284809398</v>
@@ -12156,34 +12156,34 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>66.69931425547466</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>38.32809240934477</v>
+        <v>54.52917733162502</v>
       </c>
       <c r="K40" s="0" t="n">
         <v>49.30406576485193</v>
@@ -12458,34 +12458,34 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>68.40028665857199</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>48.07797652863089</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>32.1337443788604</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>53.17315047361374</v>
       </c>
       <c r="K41" s="0" t="n">
         <v>48.0779765286309</v>
@@ -12760,34 +12760,34 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>32.95322225515861</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>51.85084517403466</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>66.69931425547466</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="J42" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="K42" s="0" t="n">
         <v>49.30406576485193</v>
@@ -13062,34 +13062,34 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>32.1337443788604</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>53.17315047361375</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>68.40028665857199</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>45.71651066925463</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>48.07797652863089</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>48.0779765286309</v>
@@ -13364,34 +13364,34 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>31.33464520739844</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>31.33464520739842</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>51.85084517403466</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>66.69931425547466</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>44.57963644236042</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>46.88237757331989</v>
@@ -13666,34 +13666,34 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>32.1337443788604</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>43.471033905253</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>68.40028665857199</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525302</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>55.9197857185333</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>48.0779765286309</v>
@@ -13968,34 +13968,34 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>31.33464520739844</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>31.33464520739842</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>51.85084517403466</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>70.14463742542604</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236042</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>32.95322225515863</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>51.85084517403465</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>49.30406576485193</v>
@@ -14270,34 +14270,34 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>32.1337443788604</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>71.93347279529078</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>33.79359853600707</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>53.17315047361374</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="K47" s="0" t="n">
         <v>50.56142284809398</v>
@@ -14572,34 +14572,34 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>31.33464520739842</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>73.76792721884129</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>40.30791283646579</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>34.65540617455232</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>51.85084517403466</v>
@@ -14874,34 +14874,34 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>30.55541796490628</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>35.53919171536398</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J49" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="K49" s="0" t="n">
         <v>53.17315047361375</v>
@@ -15176,34 +15176,34 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
+        <v>40.30791283646575</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>34.65540617455231</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>40.30791283646576</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>46.88237757331987</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F50" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>34.65540617455233</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>31.33464520739841</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>77.5783764218554</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
       <c r="G50" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>34.65540617455232</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>60.30803209303519</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>54.52917733162502</v>
@@ -15478,34 +15478,34 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>30.55541796490628</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>43.47103390525301</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>61.84601339644777</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>55.9197857185333</v>
@@ -15780,34 +15780,34 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
+        <v>42.38999999999992</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>36.44551564104447</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>40.30791283646575</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>46.88237757331987</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>38.32809240934478</v>
+      </c>
+      <c r="F52" s="0" t="n">
         <v>42.38999999999997</v>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>32.95322225515863</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>31.33464520739841</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>46.88237757331989</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>73.76792721884129</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
       <c r="G52" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>60.30803209303518</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>57.34585753585388</v>
@@ -16082,34 +16082,34 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>43.47103390525296</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>32.13374437886039</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>41.33584915225262</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>33.79359853600706</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>53.17315047361374</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>61.84601339644776</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>58.8082971754403</v>
@@ -16384,34 +16384,34 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>44.57963644236036</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>32.95322225515863</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>31.33464520739841</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>77.5783764218554</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>40.30791283646579</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>34.65540617455231</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>54.52917733162501</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="K54" s="0" t="n">
         <v>57.34585753585387</v>
@@ -16686,34 +16686,34 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>45.71651066925457</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>32.13374437886039</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>30.55541796490627</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>43.47103390525301</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>55.9197857185333</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>65.04064148674203</v>
       </c>
       <c r="K55" s="0" t="n">
         <v>58.80829717544029</v>
@@ -16988,34 +16988,34 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.57963644236036</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>32.95322225515863</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>29.79556847797585</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>77.5783764218554</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>40.30791283646579</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>36.44551564104447</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>66.69931425547465</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>57.34585753585387</v>
@@ -17290,34 +17290,34 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>45.71651066925457</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>32.13374437886039</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>30.55541796490627</v>
+        <v>43.47103390525296</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>45.71651066925461</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>79.55678772703371</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>41.33584915225262</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>50.56142284809397</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J57" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>65.04064148674203</v>
       </c>
       <c r="K57" s="0" t="n">
         <v>58.80829717544029</v>
@@ -17592,34 +17592,34 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>44.57963644236036</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>32.95322225515863</v>
+        <v>36.44551564104446</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>29.79556847797585</v>
+        <v>44.57963644236036</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>46.88237757331987</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>77.5783764218554</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>42.38999999999997</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>57.34585753585387</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>57.34585753585387</v>
@@ -17894,34 +17894,34 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>43.47103390525296</v>
       </c>
       <c r="B59" s="0" t="n">
+        <v>37.37495272767807</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>43.47103390525296</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>45.71651066925461</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>43.47103390525301</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>48.07797652863088</v>
+      </c>
+      <c r="H59" s="0" t="n">
         <v>33.79359853600707</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>29.05461486226053</v>
-      </c>
-      <c r="D59" s="0" t="n">
-        <v>45.71651066925463</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>75.64916407762416</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>43.471033905253</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>39.30553915192962</v>
-      </c>
       <c r="I59" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>65.04064148674203</v>
       </c>
       <c r="K59" s="0" t="n">
         <v>55.9197857185333</v>
@@ -18196,34 +18196,34 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>36.44551564104445</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>29.79556847797585</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>77.5783764218554</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>60.30803209303519</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>66.69931425547465</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>57.34585753585387</v>
@@ -18498,34 +18498,34 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>41.33584915225257</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>30.55541796490627</v>
+        <v>41.33584915225257</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>79.55678772703371</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>41.33584915225258</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>58.80829717544029</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>68.40028665857197</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>58.80829717544029</v>
@@ -18800,34 +18800,34 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>38.32809240934472</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>81.58565266984904</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>42.38999999999992</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>60.30803209303519</v>
+        <v>42.38999999999998</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>66.69931425547465</v>
       </c>
       <c r="K62" s="0" t="n">
         <v>57.34585753585387</v>
@@ -19102,34 +19102,34 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>35.53919171536398</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>79.55678772703369</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>45.71651066925462</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>41.33584915225257</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>61.84601339644777</v>
+        <v>41.33584915225263</v>
       </c>
       <c r="J63" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>68.40028665857197</v>
       </c>
       <c r="K63" s="0" t="n">
         <v>55.9197857185333</v>
@@ -19404,34 +19404,34 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>34.65540617455232</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>38.32809240934472</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>42.38999999999996</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>77.57837642185538</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>44.57963644236041</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>46.88237757331988</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>40.30791283646574</v>
+        <v>32.95322225515861</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>63.42321644873117</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J64" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>70.14463742542603</v>
       </c>
       <c r="K64" s="0" t="n">
         <v>54.52917733162501</v>
@@ -19706,34 +19706,34 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>50.56142284809398</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>75.64916407762415</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>43.471033905253</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>41.33584915225256</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>65.04064148674205</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J65" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>68.40028665857197</v>
       </c>
       <c r="K65" s="0" t="n">
         <v>53.17315047361374</v>
@@ -20008,34 +20008,34 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>42.3899999999999</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>51.85084517403466</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>73.76792721884128</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>44.5796364423604</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>40.30791283646573</v>
+        <v>31.33464520739842</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>66.69931425547466</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>70.14463742542603</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>51.85084517403465</v>
@@ -20310,34 +20310,34 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="B67" s="0" t="n">
+        <v>41.33584915225255</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>39.30553915192959</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>45.7165106692546</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>50.56142284809397</v>
+      </c>
+      <c r="H67" s="0" t="n">
         <v>32.13374437886038</v>
       </c>
-      <c r="C67" s="0" t="n">
-        <v>33.79359853600703</v>
-      </c>
-      <c r="D67" s="0" t="n">
-        <v>50.56142284809398</v>
-      </c>
-      <c r="E67" s="0" t="n">
+      <c r="I67" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="J67" s="0" t="n">
         <v>71.93347279529077</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="H67" s="0" t="n">
-        <v>39.3055391519296</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>65.04064148674205</v>
-      </c>
-      <c r="J67" s="0" t="n">
-        <v>41.3358491522526</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>53.17315047361374</v>
@@ -20612,34 +20612,34 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
+        <v>38.32809240934471</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>42.38999999999989</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>40.30791283646573</v>
+      </c>
+      <c r="D68" s="0" t="n">
         <v>44.5796364423604</v>
       </c>
-      <c r="B68" s="0" t="n">
-        <v>31.33464520739843</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>32.95322225515859</v>
-      </c>
-      <c r="D68" s="0" t="n">
-        <v>49.30406576485193</v>
-      </c>
       <c r="E68" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>42.38999999999996</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>31.33464520739842</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="J68" s="0" t="n">
         <v>73.76792721884128</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <v>46.88237757331987</v>
-      </c>
-      <c r="H68" s="0" t="n">
-        <v>38.32809240934471</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>66.69931425547466</v>
-      </c>
-      <c r="J68" s="0" t="n">
-        <v>40.30791283646577</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>54.52917733162501</v>
@@ -20914,34 +20914,34 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="B69" s="0" t="n">
+        <v>43.47103390525293</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>39.30553915192959</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>45.7165106692546</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>50.56142284809397</v>
+      </c>
+      <c r="H69" s="0" t="n">
         <v>30.55541796490629</v>
       </c>
-      <c r="C69" s="0" t="n">
-        <v>32.13374437886036</v>
-      </c>
-      <c r="D69" s="0" t="n">
-        <v>48.0779765286309</v>
-      </c>
-      <c r="E69" s="0" t="n">
+      <c r="I69" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="J69" s="0" t="n">
         <v>75.64916407762415</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="H69" s="0" t="n">
-        <v>39.30553915192959</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>65.04064148674205</v>
-      </c>
-      <c r="J69" s="0" t="n">
-        <v>39.30553915192964</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>55.9197857185333</v>
@@ -21216,34 +21216,34 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>42.38999999999989</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>49.30406576485193</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E70" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>44.5796364423604</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>31.33464520739842</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="J70" s="0" t="n">
         <v>77.57837642185538</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>46.88237757331987</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>40.30791283646573</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>63.42321644873118</v>
-      </c>
-      <c r="J70" s="0" t="n">
-        <v>40.30791283646577</v>
       </c>
       <c r="K70" s="0" t="n">
         <v>57.34585753585387</v>
@@ -21518,34 +21518,34 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>48.0779765286309</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E71" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>53.17315047361373</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>30.55541796490628</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="J71" s="0" t="n">
         <v>75.64916407762415</v>
-      </c>
-      <c r="F71" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="G71" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>39.30553915192959</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>65.04064148674205</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>39.30553915192964</v>
       </c>
       <c r="K71" s="0" t="n">
         <v>55.9197857185333</v>
@@ -21820,34 +21820,34 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>40.30791283646572</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>46.88237757331989</v>
+        <v>49.30406576485191</v>
       </c>
       <c r="E72" s="0" t="n">
+        <v>40.3079128364658</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>44.57963644236039</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>31.33464520739841</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>42.38999999999998</v>
+      </c>
+      <c r="J72" s="0" t="n">
         <v>73.76792721884128</v>
-      </c>
-      <c r="F72" s="0" t="n">
-        <v>46.88237757331987</v>
-      </c>
-      <c r="G72" s="0" t="n">
-        <v>44.5796364423604</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>40.30791283646573</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>63.42321644873118</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>40.30791283646577</v>
       </c>
       <c r="K72" s="0" t="n">
         <v>57.34585753585387</v>
@@ -22122,34 +22122,34 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>35.53919171536394</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>45.71651066925463</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E73" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>43.47103390525298</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>53.17315047361373</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>30.55541796490628</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>41.33584915225263</v>
+      </c>
+      <c r="J73" s="0" t="n">
         <v>71.93347279529077</v>
-      </c>
-      <c r="F73" s="0" t="n">
-        <v>45.71651066925461</v>
-      </c>
-      <c r="G73" s="0" t="n">
-        <v>43.47103390525299</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>41.33584915225255</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>65.04064148674205</v>
-      </c>
-      <c r="J73" s="0" t="n">
-        <v>39.30553915192964</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>58.80829717544029</v>
@@ -22424,34 +22424,34 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
+        <v>36.44551564104444</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>40.30791283646572</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>38.3280924093447</v>
+      </c>
+      <c r="D74" s="0" t="n">
         <v>49.30406576485191</v>
       </c>
-      <c r="B74" s="0" t="n">
-        <v>31.33464520739843</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>31.3346452073984</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>44.57963644236042</v>
-      </c>
       <c r="E74" s="0" t="n">
-        <v>73.76792721884128</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>42.38999999999989</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>66.69931425547466</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>38.32809240934475</v>
+        <v>70.14463742542601</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>57.34585753585387</v>
@@ -22726,34 +22726,34 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>35.53919171536394</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>48.07797652863087</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>71.93347279529077</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>53.17315047361373</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>30.55541796490628</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>68.40028665857199</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>68.40028665857196</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>58.80829717544029</v>
@@ -23028,34 +23028,34 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>42.38999999999989</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>44.57963644236042</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>73.76792721884128</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>46.88237757331987</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>70.14463742542604</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>66.69931425547463</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>57.34585753585387</v>
@@ -23330,34 +23330,34 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>35.53919171536394</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C77" s="0" t="n">
+        <v>41.33584915225254</v>
+      </c>
+      <c r="D77" s="0" t="n">
+        <v>45.7165106692546</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>39.30553915192966</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>43.47103390525298</v>
+      </c>
+      <c r="G77" s="0" t="n">
+        <v>50.56142284809397</v>
+      </c>
+      <c r="H77" s="0" t="n">
         <v>32.13374437886036</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>43.47103390525301</v>
-      </c>
-      <c r="E77" s="0" t="n">
-        <v>75.64916407762415</v>
-      </c>
-      <c r="F77" s="0" t="n">
-        <v>48.07797652863088</v>
-      </c>
-      <c r="G77" s="0" t="n">
-        <v>43.47103390525299</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>39.30553915192959</v>
-      </c>
       <c r="I77" s="0" t="n">
-        <v>71.93347279529078</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K77" s="0" t="n">
         <v>55.9197857185333</v>
@@ -23632,34 +23632,34 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>77.57837642185538</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>73.76792721884129</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K78" s="0" t="n">
         <v>54.52917733162501</v>
@@ -23934,34 +23934,34 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>35.53919171536394</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>79.55678772703369</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>45.71651066925459</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>71.93347279529078</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K79" s="0" t="n">
         <v>55.9197857185333</v>
@@ -24236,34 +24236,34 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>54.529177331625</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>44.5796364423604</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>77.57837642185538</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>46.88237757331985</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>73.76792721884129</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K80" s="0" t="n">
         <v>57.34585753585387</v>
@@ -24538,34 +24538,34 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>55.91978571853328</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C81" s="0" t="n">
+        <v>37.37495272767804</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>43.47103390525299</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>37.37495272767812</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>45.71651066925459</v>
+      </c>
+      <c r="G81" s="0" t="n">
+        <v>50.56142284809397</v>
+      </c>
+      <c r="H81" s="0" t="n">
         <v>32.13374437886036</v>
       </c>
-      <c r="D81" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="E81" s="0" t="n">
-        <v>75.64916407762415</v>
-      </c>
-      <c r="F81" s="0" t="n">
-        <v>50.56142284809396</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>39.30553915192958</v>
-      </c>
       <c r="I81" s="0" t="n">
-        <v>75.64916407762416</v>
+        <v>35.539191715364</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>58.80829717544029</v>
@@ -24840,34 +24840,34 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>57.34585753585386</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>73.76792721884128</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>44.57963644236038</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>32.9532222551586</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>73.76792721884129</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K82" s="0" t="n">
         <v>57.34585753585387</v>
@@ -25142,34 +25142,34 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>55.91978571853328</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>30.55541796490627</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>75.64916407762415</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>39.30553915192964</v>
+        <v>50.56142284809397</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>39.30553915192958</v>
+        <v>33.79359853600704</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>71.93347279529078</v>
+        <v>33.79359853600708</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K83" s="0" t="n">
         <v>58.80829717544029</v>
@@ -25444,34 +25444,34 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>57.34585753585386</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>42.38999999999995</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>77.57837642185538</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>40.30791283646577</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>40.30791283646571</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>70.14463742542603</v>
+        <v>32.95322225515864</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K84" s="0" t="n">
         <v>60.30803209303519</v>
@@ -25746,34 +25746,34 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>55.91978571853328</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>45.71651066925453</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>43.47103390525299</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>79.55678772703369</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>41.3358491522526</v>
+        <v>53.17315047361373</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>35.53919171536395</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>68.40028665857197</v>
+        <v>32.1337443788604</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K85" s="0" t="n">
         <v>61.84601339644777</v>
@@ -26048,34 +26048,34 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>54.529177331625</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>32.95322225515862</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>32.95322225515858</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>44.57963644236039</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>77.57837642185538</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>42.38999999999995</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>42.38999999999988</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>70.14463742542603</v>
+        <v>31.33464520739844</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>36.44551564104446</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K86" s="0" t="n">
         <v>63.42321644873117</v>
@@ -26350,34 +26350,34 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>55.91978571853328</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>79.55678772703369</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>50.56142284809397</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>43.47103390525292</v>
+        <v>35.53919171536395</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>71.93347279529077</v>
+        <v>30.55541796490631</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>37.37495272767807</v>
+        <v>61.84601339644774</v>
       </c>
       <c r="K87" s="0" t="n">
         <v>65.04064148674205</v>
@@ -26652,34 +26652,34 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>57.34585753585386</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>31.33464520739843</v>
+        <v>42.38999999999989</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>77.57837642185538</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>42.38999999999988</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>70.14463742542601</v>
+        <v>29.79556847797588</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>36.44551564104445</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K88" s="0" t="n">
         <v>66.69931425547466</v>
@@ -26954,34 +26954,34 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>58.80829717544028</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>45.7165106692546</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>79.55678772703369</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>48.07797652863088</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>50.56142284809397</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>41.33584915225253</v>
+        <v>35.53919171536395</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>29.05461486226056</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>68.40028665857199</v>
@@ -27256,34 +27256,34 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>57.34585753585386</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>29.79556847797587</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>81.58565266984903</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>66.69931425547463</v>
+        <v>28.33208721687191</v>
       </c>
       <c r="J90" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>66.69931425547466</v>
@@ -27558,34 +27558,34 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>58.80829717544028</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>30.55541796490629</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>48.07797652863086</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>79.55678772703368</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>43.47103390525298</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>35.53919171536395</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>29.05461486226056</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>65.04064148674205</v>
@@ -27860,34 +27860,34 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>31.33464520739842</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>49.3040657648519</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>77.57837642185537</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>66.69931425547463</v>
+        <v>29.79556847797588</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>66.69931425547466</v>
@@ -28162,34 +28162,34 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>58.80829717544028</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>32.13374437886038</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>48.07797652863086</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>79.55678772703368</v>
+        <v>35.539191715364</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>48.07797652863088</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>35.53919171536395</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>29.05461486226055</v>
       </c>
       <c r="J93" s="0" t="n">
-        <v>33.79359853600704</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K93" s="0" t="n">
         <v>65.04064148674205</v>
@@ -28464,34 +28464,34 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>31.33464520739842</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>46.88237757331986</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>81.58565266984901</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="I94" s="0" t="n">
+        <v>29.79556847797587</v>
+      </c>
+      <c r="J94" s="0" t="n">
         <v>66.69931425547463</v>
-      </c>
-      <c r="J94" s="0" t="n">
-        <v>34.65540617455228</v>
       </c>
       <c r="K94" s="0" t="n">
         <v>63.42321644873118</v>
@@ -28766,34 +28766,34 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>61.84601339644775</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B95" s="0" t="n">
+        <v>43.47103390525291</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>37.37495272767804</v>
+      </c>
+      <c r="D95" s="0" t="n">
+        <v>48.07797652863086</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>35.539191715364</v>
+      </c>
+      <c r="F95" s="0" t="n">
+        <v>39.30553915192963</v>
+      </c>
+      <c r="G95" s="0" t="n">
+        <v>50.56142284809397</v>
+      </c>
+      <c r="H95" s="0" t="n">
+        <v>33.79359853600703</v>
+      </c>
+      <c r="I95" s="0" t="n">
         <v>30.55541796490629</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>30.55541796490626</v>
-      </c>
-      <c r="D95" s="0" t="n">
-        <v>45.71651066925462</v>
-      </c>
-      <c r="E95" s="0" t="n">
-        <v>79.55678772703367</v>
-      </c>
-      <c r="F95" s="0" t="n">
-        <v>53.17315047361372</v>
-      </c>
-      <c r="G95" s="0" t="n">
-        <v>43.47103390525298</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>45.71651066925452</v>
-      </c>
-      <c r="I95" s="0" t="n">
-        <v>68.40028665857196</v>
-      </c>
       <c r="J95" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K95" s="0" t="n">
         <v>61.84601339644777</v>
@@ -29068,34 +29068,34 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>49.3040657648519</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>81.585652669849</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>54.529177331625</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="I96" s="0" t="n">
+        <v>31.33464520739843</v>
+      </c>
+      <c r="J96" s="0" t="n">
         <v>66.69931425547463</v>
-      </c>
-      <c r="J96" s="0" t="n">
-        <v>32.95322225515859</v>
       </c>
       <c r="K96" s="0" t="n">
         <v>60.30803209303519</v>
@@ -29370,34 +29370,34 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>30.55541796490628</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>79.55678772703365</v>
+        <v>35.539191715364</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>50.56142284809397</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>58.80829717544029</v>
@@ -29672,34 +29672,34 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>46.88237757331988</v>
+        <v>49.3040657648519</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>77.57837642185534</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>70.14463742542601</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>57.34585753585387</v>
@@ -29974,34 +29974,34 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>29.05461486226054</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>45.71651066925462</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>75.64916407762411</v>
+        <v>35.53919171536399</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>50.56142284809396</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>53.17315047361373</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>68.40028665857196</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>55.9197857185333</v>
@@ -30276,34 +30276,34 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>29.79556847797586</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>29.79556847797583</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>44.57963644236041</v>
+        <v>49.3040657648519</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>77.57837642185534</v>
+        <v>36.44551564104449</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>51.85084517403464</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>51.85084517403465</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>34.65540617455227</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>70.14463742542601</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K100" s="0" t="n">
         <v>57.34585753585387</v>
@@ -30578,34 +30578,34 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>29.05461486226054</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>50.56142284809395</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>79.55678772703365</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>50.56142284809397</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>30.55541796490629</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>65.04064148674202</v>
       </c>
       <c r="K101" s="0" t="n">
         <v>58.80829717544029</v>
@@ -30880,34 +30880,34 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>29.79556847797583</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>51.85084517403462</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>77.57837642185534</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>54.529177331625</v>
+        <v>42.38999999999994</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>49.30406576485192</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>73.76792721884127</v>
+        <v>29.79556847797587</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>63.42321644873115</v>
       </c>
       <c r="K102" s="0" t="n">
         <v>57.34585753585387</v>
@@ -31182,34 +31182,34 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
+        <v>35.53919171536393</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>43.4710339052529</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>37.37495272767804</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>53.1731504736137</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>35.53919171536398</v>
+      </c>
+      <c r="F103" s="0" t="n">
+        <v>41.33584915225259</v>
+      </c>
+      <c r="G103" s="0" t="n">
+        <v>50.56142284809397</v>
+      </c>
+      <c r="H103" s="0" t="n">
+        <v>35.53919171536393</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>29.05461486226055</v>
+      </c>
+      <c r="J103" s="0" t="n">
         <v>61.84601339644774</v>
-      </c>
-      <c r="B103" s="0" t="n">
-        <v>29.05461486226054</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>29.05461486226051</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>41.33584915225261</v>
-      </c>
-      <c r="E103" s="0" t="n">
-        <v>79.55678772703365</v>
-      </c>
-      <c r="F103" s="0" t="n">
-        <v>55.91978571853328</v>
-      </c>
-      <c r="G103" s="0" t="n">
-        <v>43.47103390525298</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>48.07797652863078</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>71.93347279529075</v>
-      </c>
-      <c r="J103" s="0" t="n">
-        <v>33.79359853600702</v>
       </c>
       <c r="K103" s="0" t="n">
         <v>58.80829717544029</v>
@@ -31484,34 +31484,34 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
+        <v>34.65540617455227</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>44.5796364423603</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>36.44551564104442</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>54.52917733162498</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>34.65540617455232</v>
+      </c>
+      <c r="F104" s="0" t="n">
+        <v>42.38999999999994</v>
+      </c>
+      <c r="G104" s="0" t="n">
+        <v>51.85084517403465</v>
+      </c>
+      <c r="H104" s="0" t="n">
+        <v>34.65540617455226</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>29.79556847797587</v>
+      </c>
+      <c r="J104" s="0" t="n">
         <v>60.30803209303516</v>
-      </c>
-      <c r="B104" s="0" t="n">
-        <v>29.79556847797586</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>29.79556847797583</v>
-      </c>
-      <c r="D104" s="0" t="n">
-        <v>42.38999999999997</v>
-      </c>
-      <c r="E104" s="0" t="n">
-        <v>77.57837642185534</v>
-      </c>
-      <c r="F104" s="0" t="n">
-        <v>54.529177331625</v>
-      </c>
-      <c r="G104" s="0" t="n">
-        <v>42.38999999999994</v>
-      </c>
-      <c r="H104" s="0" t="n">
-        <v>46.88237757331978</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>73.76792721884127</v>
-      </c>
-      <c r="J104" s="0" t="n">
-        <v>34.65540617455226</v>
       </c>
       <c r="K104" s="0" t="n">
         <v>57.34585753585387</v>
@@ -31786,34 +31786,34 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>61.84601339644774</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>29.05461486226053</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="E105" s="0" t="n">
-        <v>75.64916407762411</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>55.91978571853328</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>53.17315047361373</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>71.93347279529075</v>
+        <v>29.05461486226054</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>58.80829717544029</v>
@@ -32088,34 +32088,34 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>63.42321644873115</v>
+        <v>32.95322225515858</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="E106" s="0" t="n">
-        <v>77.57837642185534</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>54.529177331625</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>57.34585753585385</v>
       </c>
       <c r="K106" s="0" t="n">
         <v>57.34585753585387</v>
@@ -32390,34 +32390,34 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>33.79359853600702</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>58.80829717544025</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>79.55678772703365</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>55.91978571853328</v>
+        <v>41.33584915225258</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>68.40028665857194</v>
+        <v>29.05461486226054</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>55.9197857185333</v>
@@ -32692,34 +32692,34 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>77.57837642185534</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>57.34585753585386</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>57.34585753585385</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>54.52917733162501</v>
@@ -32994,34 +32994,34 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>68.40028665857194</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>58.80829717544025</v>
       </c>
       <c r="E109" s="0" t="n">
-        <v>79.55678772703365</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>58.80829717544028</v>
+        <v>41.33584915225257</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>71.93347279529074</v>
+        <v>30.55541796490628</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>55.9197857185333</v>
@@ -33296,34 +33296,34 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>60.30803209303514</v>
       </c>
       <c r="E110" s="0" t="n">
-        <v>77.57837642185534</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>73.76792721884125</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="K110" s="0" t="n">
         <v>54.52917733162501</v>
@@ -33598,34 +33598,34 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>68.40028665857194</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>58.80829717544025</v>
       </c>
       <c r="E111" s="0" t="n">
-        <v>79.55678772703365</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>61.84601339644775</v>
+        <v>43.47103390525295</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>75.64916407762412</v>
+        <v>29.05461486226054</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="K111" s="0" t="n">
         <v>55.9197857185333</v>
@@ -33900,34 +33900,34 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>70.144637425426</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>28.33208721687189</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="E112" s="0" t="n">
-        <v>81.58565266984898</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>63.42321644873116</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>73.76792721884125</v>
+        <v>29.79556847797586</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="K112" s="0" t="n">
         <v>54.52917733162501</v>
@@ -34202,34 +34202,34 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>71.93347279529074</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>27.62752732637608</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>55.91978571853325</v>
       </c>
       <c r="E113" s="0" t="n">
-        <v>79.55678772703364</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>61.84601339644775</v>
+        <v>45.71651066925456</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>71.93347279529074</v>
+        <v>30.55541796490628</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>53.17315047361374</v>
@@ -34504,34 +34504,34 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>70.14463742542598</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="E114" s="0" t="n">
-        <v>81.58565266984897</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>63.42321644873116</v>
+        <v>46.88237757331982</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>70.14463742542598</v>
+        <v>31.33464520739841</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>60.30803209303516</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>51.85084517403465</v>
@@ -34806,34 +34806,34 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>71.93347279529073</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>55.91978571853324</v>
       </c>
       <c r="E115" s="0" t="n">
-        <v>79.55678772703364</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>61.84601339644775</v>
+        <v>45.71651066925456</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>71.93347279529073</v>
+        <v>30.55541796490627</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>53.17315047361374</v>
@@ -35108,34 +35108,34 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>54.52917733162496</v>
       </c>
       <c r="E116" s="0" t="n">
-        <v>77.57837642185532</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>63.42321644873116</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>73.76792721884124</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585385</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>51.85084517403465</v>
@@ -35410,34 +35410,34 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>55.91978571853323</v>
       </c>
       <c r="E117" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>61.84601339644775</v>
+        <v>43.47103390525295</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>71.93347279529073</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>55.91978571853327</v>
       </c>
       <c r="K117" s="0" t="n">
         <v>53.17315047361374</v>
@@ -35712,34 +35712,34 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>57.3458575358538</v>
       </c>
       <c r="E118" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="F118" s="0" t="n">
-        <v>60.30803209303517</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585384</v>
       </c>
       <c r="K118" s="0" t="n">
         <v>51.85084517403465</v>
@@ -36014,34 +36014,34 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>26.27053463926975</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>55.91978571853323</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>61.84601339644774</v>
+        <v>43.47103390525295</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>50.56142284809386</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="K119" s="0" t="n">
         <v>53.17315047361374</v>
@@ -36316,34 +36316,34 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>25.61724125968111</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>54.52917733162494</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>63.42321644873115</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>57.34585753585383</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>51.85084517403465</v>
@@ -36618,34 +36618,34 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>55.91978571853322</v>
       </c>
       <c r="E121" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>65.04064148674202</v>
+        <v>43.47103390525295</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>55.91978571853326</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>50.56142284809398</v>
@@ -36920,34 +36920,34 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>26.94048837020098</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>57.34585753585379</v>
       </c>
       <c r="E122" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934476</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>63.42321644873115</v>
+        <v>44.57963644236035</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>57.34585753585382</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>49.30406576485193</v>
@@ -37222,34 +37222,34 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>55.91978571853321</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192964</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>61.84601339644774</v>
+        <v>43.47103390525295</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>58.80829717544025</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>48.07797652863089</v>
@@ -37524,34 +37524,34 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>25.6172412596811</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>36.44551564104442</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>54.52917733162493</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>63.42321644873115</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="J124" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>60.30803209303514</v>
       </c>
       <c r="K124" s="0" t="n">
         <v>46.88237757331989</v>
@@ -37826,34 +37826,34 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>53.17315047361365</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>41.3358491522526</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>61.84601339644774</v>
+        <v>43.47103390525295</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>61.84601339644772</v>
       </c>
       <c r="K125" s="0" t="n">
         <v>45.71651066925462</v>
@@ -38128,34 +38128,34 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>36.44551564104442</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>51.85084517403457</v>
       </c>
       <c r="E126" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.30791283646577</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>60.30803209303516</v>
+        <v>42.38999999999992</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>49.30406576485181</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>31.3346452073984</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>63.42321644873113</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>46.88237757331989</v>
@@ -38430,34 +38430,34 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>53.17315047361365</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>48.07797652863078</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="J127" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>65.04064148674199</v>
       </c>
       <c r="K127" s="0" t="n">
         <v>48.07797652863089</v>
@@ -38732,34 +38732,34 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>25.6172412596811</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>54.52917733162492</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>60.30803209303516</v>
+        <v>42.38999999999991</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>66.6993142554746</v>
       </c>
       <c r="K128" s="0" t="n">
         <v>46.88237757331989</v>
@@ -39034,34 +39034,34 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>53.17315047361365</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192963</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>32.13374437886036</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>68.40028665857193</v>
       </c>
       <c r="K129" s="0" t="n">
         <v>48.07797652863089</v>
@@ -39336,34 +39336,34 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>54.52917733162492</v>
       </c>
       <c r="E130" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.30791283646576</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>60.30803209303516</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>60.30803209303518</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>70.14463742542598</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>46.88237757331989</v>
@@ -39638,34 +39638,34 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>43.47103390525291</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>53.17315047361365</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>41.33584915225259</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>41.33584915225255</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="J131" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>68.40028665857193</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>48.07797652863089</v>
@@ -39940,34 +39940,34 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>51.85084517403456</v>
       </c>
       <c r="E132" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>60.30803209303516</v>
+        <v>42.38999999999989</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>46.88237757331978</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>32.95322225515859</v>
       </c>
       <c r="J132" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>66.6993142554746</v>
       </c>
       <c r="K132" s="0" t="n">
         <v>46.88237757331989</v>
@@ -40242,34 +40242,34 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>53.17315047361364</v>
       </c>
       <c r="E133" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>58.80829717544027</v>
+        <v>43.47103390525293</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>37.37495272767808</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>45.71651066925452</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>33.79359853600703</v>
       </c>
       <c r="J133" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>68.40028665857193</v>
       </c>
       <c r="K133" s="0" t="n">
         <v>45.71651066925462</v>
@@ -40544,34 +40544,34 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>54.52917733162491</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>63.42321644873111</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>60.30803209303516</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>36.44551564104446</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>34.65540617455228</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>66.6993142554746</v>
       </c>
       <c r="K134" s="0" t="n">
         <v>46.88237757331989</v>
@@ -40846,34 +40846,34 @@
     </row>
     <row r="135">
       <c r="A135" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>53.17315047361364</v>
       </c>
       <c r="E135" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>61.84601339644774</v>
+        <v>45.71651066925454</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>35.53919171536394</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>65.04064148674199</v>
       </c>
       <c r="K135" s="0" t="n">
         <v>45.71651066925462</v>
@@ -41148,34 +41148,34 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>63.42321644873111</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>34.65540617455226</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>54.52917733162491</v>
       </c>
       <c r="E136" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>60.30803209303515</v>
+        <v>44.57963644236033</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>36.44551564104446</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>66.6993142554746</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>46.88237757331989</v>
@@ -41450,34 +41450,34 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>61.8460133964477</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>53.17315047361364</v>
       </c>
       <c r="E137" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>45.71651066925454</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>68.40028665857193</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>45.71651066925462</v>
@@ -41752,34 +41752,34 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>63.4232164487311</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="E138" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>46.8823775733198</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>34.6554061745523</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>44.57963644236031</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>70.14463742542598</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>44.57963644236042</v>
@@ -42054,34 +42054,34 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>65.04064148674196</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B139" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>45.71651066925454</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>35.53919171536396</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>43.47103390525291</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>45.71651066925462</v>
@@ -42356,34 +42356,34 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>66.69931425547458</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B140" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="C140" s="0" t="n">
-        <v>28.33208721687186</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="E140" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>46.8823775733198</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>34.6554061745523</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>73.76792721884124</v>
       </c>
       <c r="K140" s="0" t="n">
         <v>46.88237757331989</v>
@@ -42658,34 +42658,34 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>65.04064148674196</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B141" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="C141" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>68.40028665857194</v>
+        <v>48.0779765286308</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>33.79359853600705</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>71.93347279529073</v>
       </c>
       <c r="K141" s="0" t="n">
         <v>45.71651066925462</v>
@@ -42960,34 +42960,34 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>66.69931425547458</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B142" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="C142" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>49.30406576485183</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>34.65540617455229</v>
+        <v>54.52917733162501</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>40.3079128364657</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="J142" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K142" s="0" t="n">
         <v>44.57963644236042</v>
@@ -43262,34 +43262,34 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>65.04064148674196</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B143" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>48.07797652863087</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>50.56142284809388</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>33.79359853600704</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="I143" s="0" t="n">
+        <v>35.53919171536393</v>
+      </c>
+      <c r="J143" s="0" t="n">
         <v>68.40028665857191</v>
-      </c>
-      <c r="J143" s="0" t="n">
-        <v>30.55541796490624</v>
       </c>
       <c r="K143" s="0" t="n">
         <v>43.47103390525301</v>
@@ -43564,34 +43564,34 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>63.4232164487311</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B144" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="C144" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>49.30406576485191</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="E144" s="0" t="n">
-        <v>73.76792721884122</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>32.9532222551586</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>42.38999999999997</v>
@@ -43866,34 +43866,34 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>65.04064148674196</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B145" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="E145" s="0" t="n">
+        <v>41.33584915225255</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>50.56142284809388</v>
+      </c>
+      <c r="G145" s="0" t="n">
+        <v>58.80829717544029</v>
+      </c>
+      <c r="H145" s="0" t="n">
+        <v>43.47103390525291</v>
+      </c>
+      <c r="I145" s="0" t="n">
+        <v>37.37495272767804</v>
+      </c>
+      <c r="J145" s="0" t="n">
         <v>71.93347279529071</v>
-      </c>
-      <c r="F145" s="0" t="n">
-        <v>61.84601339644773</v>
-      </c>
-      <c r="G145" s="0" t="n">
-        <v>33.79359853600704</v>
-      </c>
-      <c r="H145" s="0" t="n">
-        <v>39.30553915192957</v>
-      </c>
-      <c r="I145" s="0" t="n">
-        <v>65.04064148674198</v>
-      </c>
-      <c r="J145" s="0" t="n">
-        <v>30.55541796490624</v>
       </c>
       <c r="K145" s="0" t="n">
         <v>41.33584915225262</v>
@@ -44168,34 +44168,34 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>63.4232164487311</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B146" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="C146" s="0" t="n">
-        <v>32.95322225515856</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="E146" s="0" t="n">
+        <v>42.38999999999989</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>51.85084517403455</v>
+      </c>
+      <c r="G146" s="0" t="n">
+        <v>57.34585753585387</v>
+      </c>
+      <c r="H146" s="0" t="n">
+        <v>42.38999999999987</v>
+      </c>
+      <c r="I146" s="0" t="n">
+        <v>38.3280924093447</v>
+      </c>
+      <c r="J146" s="0" t="n">
         <v>73.76792721884122</v>
-      </c>
-      <c r="F146" s="0" t="n">
-        <v>63.42321644873114</v>
-      </c>
-      <c r="G146" s="0" t="n">
-        <v>32.9532222551586</v>
-      </c>
-      <c r="H146" s="0" t="n">
-        <v>40.3079128364657</v>
-      </c>
-      <c r="I146" s="0" t="n">
-        <v>66.69931425547459</v>
-      </c>
-      <c r="J146" s="0" t="n">
-        <v>31.33464520739837</v>
       </c>
       <c r="K146" s="0" t="n">
         <v>42.38999999999997</v>
@@ -44470,34 +44470,34 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>61.84601339644769</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B147" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>35.53919171536392</v>
       </c>
       <c r="C147" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>50.56142284809395</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="E147" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>33.79359853600704</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>39.30553915192957</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="J147" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K147" s="0" t="n">
         <v>43.47103390525301</v>
@@ -44772,34 +44772,34 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>60.30803209303511</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B148" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="C148" s="0" t="n">
-        <v>31.33464520739837</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>51.85084517403463</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="E148" s="0" t="n">
-        <v>77.57837642185532</v>
+        <v>42.38999999999989</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>51.85084517403455</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>32.9532222551586</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H148" s="0" t="n">
         <v>40.3079128364657</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="J148" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="K148" s="0" t="n">
         <v>44.57963644236041</v>
@@ -45074,34 +45074,34 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>61.84601339644769</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B149" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="C149" s="0" t="n">
-        <v>32.13374437886033</v>
+        <v>35.53919171536392</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>53.17315047361372</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="E149" s="0" t="n">
-        <v>79.55678772703364</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>33.79359853600704</v>
+        <v>55.91978571853329</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K149" s="0" t="n">
         <v>43.471033905253</v>
@@ -45376,34 +45376,34 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>63.42321644873109</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B150" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="C150" s="0" t="n">
-        <v>32.95322225515856</v>
+        <v>34.65540617455225</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>54.52917733162499</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="E150" s="0" t="n">
-        <v>81.58565266984897</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>34.65540617455228</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H150" s="0" t="n">
         <v>40.3079128364657</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="J150" s="0" t="n">
-        <v>28.33208721687186</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="K150" s="0" t="n">
         <v>42.38999999999997</v>
@@ -45678,34 +45678,34 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>61.84601339644768</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B151" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="C151" s="0" t="n">
-        <v>33.793598536007</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>55.91978571853327</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>79.55678772703364</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H151" s="0" t="n">
         <v>41.33584915225252</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="J151" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K151" s="0" t="n">
         <v>43.471033905253</v>
@@ -45980,34 +45980,34 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>63.42321644873108</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B152" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>34.65540617455225</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>57.34585753585384</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>77.57837642185532</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>57.34585753585387</v>
       </c>
       <c r="H152" s="0" t="n">
         <v>42.38999999999987</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>28.33208721687186</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K152" s="0" t="n">
         <v>42.38999999999997</v>
@@ -46282,34 +46282,34 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>65.04064148674195</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B153" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="C153" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>55.91978571853326</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E153" s="0" t="n">
-        <v>75.64916407762409</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>33.79359853600703</v>
+        <v>58.80829717544029</v>
       </c>
       <c r="H153" s="0" t="n">
         <v>43.4710339052529</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K153" s="0" t="n">
         <v>43.471033905253</v>
@@ -46584,34 +46584,34 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>66.69931425547456</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B154" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>34.65540617455225</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>54.52917733162498</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E154" s="0" t="n">
+        <v>40.3079128364657</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>49.30406576485182</v>
+      </c>
+      <c r="G154" s="0" t="n">
+        <v>60.30803209303518</v>
+      </c>
+      <c r="H154" s="0" t="n">
+        <v>44.5796364423603</v>
+      </c>
+      <c r="I154" s="0" t="n">
+        <v>38.3280924093447</v>
+      </c>
+      <c r="J154" s="0" t="n">
         <v>73.76792721884122</v>
-      </c>
-      <c r="F154" s="0" t="n">
-        <v>63.42321644873114</v>
-      </c>
-      <c r="G154" s="0" t="n">
-        <v>32.95322225515859</v>
-      </c>
-      <c r="H154" s="0" t="n">
-        <v>42.38999999999987</v>
-      </c>
-      <c r="I154" s="0" t="n">
-        <v>66.69931425547459</v>
-      </c>
-      <c r="J154" s="0" t="n">
-        <v>28.33208721687186</v>
       </c>
       <c r="K154" s="0" t="n">
         <v>44.5796364423604</v>
@@ -46886,34 +46886,34 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>65.04064148674195</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B155" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="C155" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>35.53919171536392</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>53.1731504736137</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E155" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>32.13374437886036</v>
+        <v>61.84601339644776</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>43.47103390525299</v>
@@ -47188,34 +47188,34 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>66.69931425547456</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B156" s="0" t="n">
-        <v>29.79556847797584</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="C156" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>51.85084517403462</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E156" s="0" t="n">
+        <v>38.32809240934469</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>49.30406576485182</v>
+      </c>
+      <c r="G156" s="0" t="n">
+        <v>63.42321644873117</v>
+      </c>
+      <c r="H156" s="0" t="n">
+        <v>44.5796364423603</v>
+      </c>
+      <c r="I156" s="0" t="n">
+        <v>38.3280924093447</v>
+      </c>
+      <c r="J156" s="0" t="n">
         <v>73.76792721884122</v>
-      </c>
-      <c r="F156" s="0" t="n">
-        <v>63.42321644873114</v>
-      </c>
-      <c r="G156" s="0" t="n">
-        <v>31.3346452073984</v>
-      </c>
-      <c r="H156" s="0" t="n">
-        <v>40.3079128364657</v>
-      </c>
-      <c r="I156" s="0" t="n">
-        <v>66.69931425547459</v>
-      </c>
-      <c r="J156" s="0" t="n">
-        <v>29.79556847797582</v>
       </c>
       <c r="K156" s="0" t="n">
         <v>44.5796364423604</v>
@@ -47490,34 +47490,34 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>68.40028665857187</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B157" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="C157" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>50.56142284809394</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E157" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>30.55541796490627</v>
+        <v>65.04064148674203</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="J157" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="K157" s="0" t="n">
         <v>45.7165106692546</v>
@@ -47792,34 +47792,34 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>70.14463742542593</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B158" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="C158" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>49.30406576485189</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E158" s="0" t="n">
+        <v>38.32809240934469</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>49.30406576485182</v>
+      </c>
+      <c r="G158" s="0" t="n">
+        <v>66.69931425547465</v>
+      </c>
+      <c r="H158" s="0" t="n">
+        <v>44.5796364423603</v>
+      </c>
+      <c r="I158" s="0" t="n">
+        <v>36.44551564104443</v>
+      </c>
+      <c r="J158" s="0" t="n">
         <v>73.76792721884122</v>
-      </c>
-      <c r="F158" s="0" t="n">
-        <v>63.42321644873114</v>
-      </c>
-      <c r="G158" s="0" t="n">
-        <v>29.79556847797584</v>
-      </c>
-      <c r="H158" s="0" t="n">
-        <v>42.38999999999987</v>
-      </c>
-      <c r="I158" s="0" t="n">
-        <v>66.69931425547459</v>
-      </c>
-      <c r="J158" s="0" t="n">
-        <v>29.79556847797582</v>
       </c>
       <c r="K158" s="0" t="n">
         <v>46.88237757331986</v>
@@ -48094,34 +48094,34 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>68.40028665857187</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="B159" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="C159" s="0" t="n">
-        <v>37.37495272767802</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>50.56142284809394</v>
+        <v>53.17315047361361</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>71.93347279529071</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>30.55541796490627</v>
+        <v>68.40028665857197</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="K159" s="0" t="n">
         <v>48.07797652863087</v>
@@ -48396,34 +48396,34 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>66.69931425547455</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B160" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="C160" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>51.85084517403462</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>66.69931425547462</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>31.3346452073984</v>
+        <v>66.69931425547465</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>36.44551564104443</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>77.57837642185532</v>
       </c>
       <c r="K160" s="0" t="n">
         <v>46.88237757331986</v>
@@ -48698,34 +48698,34 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>68.40028665857186</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B161" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C161" s="0" t="n">
-        <v>37.37495272767802</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>53.1731504736137</v>
+        <v>55.91978571853316</v>
       </c>
       <c r="E161" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>65.040641486742</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>68.40028665857197</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>30.55541796490624</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="K161" s="0" t="n">
         <v>48.07797652863087</v>
@@ -49000,34 +49000,34 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>70.14463742542591</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B162" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C162" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>54.52917733162497</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>70.14463742542597</v>
+        <v>38.32809240934469</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>63.42321644873114</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>66.69931425547465</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>29.79556847797582</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="K162" s="0" t="n">
         <v>46.88237757331986</v>
@@ -49302,34 +49302,34 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>68.40028665857186</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B163" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C163" s="0" t="n">
-        <v>37.37495272767802</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>55.91978571853325</v>
+        <v>53.17315047361361</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>61.84601339644773</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>32.13374437886035</v>
+        <v>65.04064148674203</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="J163" s="0" t="n">
-        <v>29.0546148622605</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K163" s="0" t="n">
         <v>45.7165106692546</v>
@@ -49604,34 +49604,34 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>70.14463742542591</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B164" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>38.32809240934468</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>57.34585753585382</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="E164" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>60.30803209303514</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>32.95322225515859</v>
+        <v>63.42321644873117</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="J164" s="0" t="n">
-        <v>28.33208721687186</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K164" s="0" t="n">
         <v>44.5796364423604</v>
@@ -49906,34 +49906,34 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>71.93347279529065</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B165" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C165" s="0" t="n">
-        <v>39.30553915192956</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>55.91978571853324</v>
+        <v>55.91978571853316</v>
       </c>
       <c r="E165" s="0" t="n">
+        <v>35.53919171536393</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>50.56142284809387</v>
+      </c>
+      <c r="G165" s="0" t="n">
+        <v>61.84601339644776</v>
+      </c>
+      <c r="H165" s="0" t="n">
+        <v>43.4710339052529</v>
+      </c>
+      <c r="I165" s="0" t="n">
+        <v>39.30553915192958</v>
+      </c>
+      <c r="J165" s="0" t="n">
         <v>68.40028665857191</v>
-      </c>
-      <c r="F165" s="0" t="n">
-        <v>61.84601339644772</v>
-      </c>
-      <c r="G165" s="0" t="n">
-        <v>32.13374437886035</v>
-      </c>
-      <c r="H165" s="0" t="n">
-        <v>41.33584915225252</v>
-      </c>
-      <c r="I165" s="0" t="n">
-        <v>65.04064148674198</v>
-      </c>
-      <c r="J165" s="0" t="n">
-        <v>27.62752732637605</v>
       </c>
       <c r="K165" s="0" t="n">
         <v>43.47103390525299</v>
@@ -50208,34 +50208,34 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>73.76792721884117</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B166" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>38.32809240934468</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>54.52917733162496</v>
+        <v>54.52917733162489</v>
       </c>
       <c r="E166" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>60.30803209303514</v>
+        <v>51.85084517403454</v>
       </c>
       <c r="G166" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="H166" s="0" t="n">
         <v>42.38999999999987</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>63.42321644873111</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="J166" s="0" t="n">
-        <v>26.94048837020095</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K166" s="0" t="n">
         <v>42.38999999999995</v>
@@ -50510,34 +50510,34 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>71.93347279529065</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B167" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C167" s="0" t="n">
-        <v>37.37495272767802</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>55.91978571853323</v>
+        <v>53.17315047361361</v>
       </c>
       <c r="E167" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>35.53919171536393</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>61.84601339644772</v>
+        <v>53.17315047361362</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>61.84601339644775</v>
       </c>
       <c r="H167" s="0" t="n">
         <v>41.33584915225252</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>61.8460133964477</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="J167" s="0" t="n">
-        <v>27.62752732637605</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="K167" s="0" t="n">
         <v>41.3358491522526</v>
@@ -50812,34 +50812,34 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>70.14463742542591</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B168" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C168" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E168" s="0" t="n">
+        <v>34.65540617455226</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>51.85084517403454</v>
+      </c>
+      <c r="G168" s="0" t="n">
+        <v>60.30803209303517</v>
+      </c>
+      <c r="H168" s="0" t="n">
+        <v>42.38999999999987</v>
+      </c>
+      <c r="I168" s="0" t="n">
+        <v>42.38999999999988</v>
+      </c>
+      <c r="J168" s="0" t="n">
         <v>66.69931425547459</v>
-      </c>
-      <c r="F168" s="0" t="n">
-        <v>63.42321644873113</v>
-      </c>
-      <c r="G168" s="0" t="n">
-        <v>29.79556847797584</v>
-      </c>
-      <c r="H168" s="0" t="n">
-        <v>40.3079128364657</v>
-      </c>
-      <c r="I168" s="0" t="n">
-        <v>60.30803209303512</v>
-      </c>
-      <c r="J168" s="0" t="n">
-        <v>26.94048837020095</v>
       </c>
       <c r="K168" s="0" t="n">
         <v>42.38999999999995</v>
@@ -51114,34 +51114,34 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>68.40028665857186</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B169" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C169" s="0" t="n">
-        <v>37.37495272767802</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>58.80829717544022</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E169" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>65.04064148674199</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>30.55541796490626</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>41.33584915225252</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>58.80829717544022</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="J169" s="0" t="n">
-        <v>26.27053463926972</v>
+        <v>68.40028665857191</v>
       </c>
       <c r="K169" s="0" t="n">
         <v>41.3358491522526</v>
@@ -51416,34 +51416,34 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>66.69931425547453</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B170" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C170" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E170" s="0" t="n">
-        <v>63.42321644873111</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>66.6993142554746</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>31.33464520739839</v>
+        <v>60.30803209303517</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>60.30803209303511</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="J170" s="0" t="n">
-        <v>25.61724125968108</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K170" s="0" t="n">
         <v>42.38999999999995</v>
@@ -51718,34 +51718,34 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>65.04064148674192</v>
+        <v>48.07797652863077</v>
       </c>
       <c r="B171" s="0" t="n">
-        <v>29.05461486226052</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="C171" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>55.91978571853323</v>
+        <v>53.17315047361361</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>68.40028665857193</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>30.55541796490625</v>
+        <v>58.80829717544027</v>
       </c>
       <c r="H171" s="0" t="n">
         <v>41.33584915225252</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>61.84601339644769</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="J171" s="0" t="n">
-        <v>26.27053463926972</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K171" s="0" t="n">
         <v>41.3358491522526</v>
@@ -52020,34 +52020,34 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>66.69931425547453</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B172" s="0" t="n">
-        <v>28.33208721687188</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="C172" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E172" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>70.14463742542598</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>29.79556847797583</v>
+        <v>57.34585753585385</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>40.3079128364657</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>60.30803209303511</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="J172" s="0" t="n">
-        <v>25.61724125968108</v>
+        <v>70.14463742542597</v>
       </c>
       <c r="K172" s="0" t="n">
         <v>40.30791283646577</v>
@@ -52322,34 +52322,34 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>65.04064148674192</v>
+        <v>48.07797652863077</v>
       </c>
       <c r="B173" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="C173" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>58.80829717544022</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>68.40028665857191</v>
+        <v>33.79359853600701</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>71.93347279529073</v>
+        <v>50.56142284809387</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>29.05461486226051</v>
+        <v>55.91978571853328</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>41.33584915225252</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>58.80829717544022</v>
+        <v>43.4710339052529</v>
       </c>
       <c r="J173" s="0" t="n">
-        <v>26.27053463926972</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K173" s="0" t="n">
         <v>41.33584915225259</v>
@@ -52624,34 +52624,34 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>63.42321644873105</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B174" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C174" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>60.3080320930351</v>
+        <v>49.30406576485181</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>73.76792721884124</v>
+        <v>49.30406576485182</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>28.33208721687187</v>
+        <v>54.52917733162499</v>
       </c>
       <c r="H174" s="0" t="n">
         <v>42.38999999999987</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="J174" s="0" t="n">
-        <v>26.94048837020095</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="K174" s="0" t="n">
         <v>40.30791283646576</v>
@@ -52926,34 +52926,34 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>61.84601339644765</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B175" s="0" t="n">
-        <v>27.62752732637607</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C175" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>58.80829717544021</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E175" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>75.64916407762411</v>
+        <v>48.07797652863078</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>29.05461486226051</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>58.80829717544022</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="J175" s="0" t="n">
-        <v>27.62752732637605</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="K175" s="0" t="n">
         <v>41.33584915225259</v>
@@ -53228,34 +53228,34 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>60.30803209303507</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="B176" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="C176" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>57.34585753585379</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E176" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>32.95322225515857</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>73.76792721884124</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>28.33208721687187</v>
+        <v>51.85084517403463</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>42.38999999999987</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="J176" s="0" t="n">
-        <v>26.94048837020095</v>
+        <v>77.57837642185532</v>
       </c>
       <c r="K176" s="0" t="n">
         <v>40.30791283646575</v>
@@ -53530,34 +53530,34 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>61.84601339644765</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="B177" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C177" s="0" t="n">
-        <v>35.53919171536391</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>55.91978571853321</v>
+        <v>53.17315047361361</v>
       </c>
       <c r="E177" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>32.13374437886034</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>75.64916407762411</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="G177" s="0" t="n">
-        <v>29.05461486226051</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>43.4710339052529</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>58.80829717544022</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="J177" s="0" t="n">
-        <v>27.62752732637605</v>
+        <v>75.64916407762409</v>
       </c>
       <c r="K177" s="0" t="n">
         <v>41.33584915225258</v>
@@ -53832,34 +53832,34 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>60.30803209303507</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B178" s="0" t="n">
-        <v>26.94048837020097</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="C178" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>54.52917733162493</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E178" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>31.33464520739838</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>73.76792721884124</v>
+        <v>46.88237757331978</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>28.33208721687187</v>
+        <v>54.52917733162499</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>44.5796364423603</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>57.3458575358538</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="J178" s="0" t="n">
-        <v>26.94048837020095</v>
+        <v>73.76792721884122</v>
       </c>
       <c r="K178" s="0" t="n">
         <v>40.30791283646575</v>
@@ -54134,34 +54134,34 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>58.80829717544017</v>
+        <v>48.07797652863077</v>
       </c>
       <c r="B179" s="0" t="n">
-        <v>26.27053463926974</v>
+        <v>45.71651066925451</v>
       </c>
       <c r="C179" s="0" t="n">
-        <v>37.37495272767802</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>55.91978571853321</v>
+        <v>50.56142284809386</v>
       </c>
       <c r="E179" s="0" t="n">
-        <v>65.04064148674198</v>
+        <v>30.55541796490625</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>71.93347279529073</v>
+        <v>45.71651066925452</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>27.62752732637606</v>
+        <v>53.17315047361372</v>
       </c>
       <c r="H179" s="0" t="n">
         <v>43.4710339052529</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>55.91978571853322</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>27.62752732637605</v>
+        <v>71.93347279529071</v>
       </c>
       <c r="K179" s="0" t="n">
         <v>39.30553915192962</v>
@@ -54436,34 +54436,34 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>60.30803209303506</v>
+        <v>46.88237757331977</v>
       </c>
       <c r="B180" s="0" t="n">
-        <v>25.6172412596811</v>
+        <v>44.5796364423603</v>
       </c>
       <c r="C180" s="0" t="n">
-        <v>36.44551564104441</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>57.34585753585377</v>
+        <v>51.85084517403453</v>
       </c>
       <c r="E180" s="0" t="n">
-        <v>66.69931425547459</v>
+        <v>29.79556847797583</v>
       </c>
       <c r="F180" s="0" t="n">
+        <v>46.88237757331978</v>
+      </c>
+      <c r="G180" s="0" t="n">
+        <v>54.52917733162499</v>
+      </c>
+      <c r="H180" s="0" t="n">
+        <v>42.38999999999987</v>
+      </c>
+      <c r="I180" s="0" t="n">
+        <v>40.3079128364657</v>
+      </c>
+      <c r="J180" s="0" t="n">
         <v>70.14463742542597</v>
-      </c>
-      <c r="G180" s="0" t="n">
-        <v>28.33208721687187</v>
-      </c>
-      <c r="H180" s="0" t="n">
-        <v>44.5796364423603</v>
-      </c>
-      <c r="I180" s="0" t="n">
-        <v>57.34585753585379</v>
-      </c>
-      <c r="J180" s="0" t="n">
-        <v>26.94048837020095</v>
       </c>
       <c r="K180" s="0" t="n">
         <v>38.32809240934473</v>

--- a/output/oil_price.xlsx
+++ b/output/oil_price.xlsx
@@ -982,7 +982,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>43.47103390525304</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>39.30553915192968</v>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>44.57963644236044</v>
+        <v>42.39</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>40.30791283646581</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>43.47103390525303</v>
+        <v>41.33584915225265</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>39.30553915192967</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>44.57963644236043</v>
+        <v>40.30791283646582</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>40.3079128364658</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>39.30553915192968</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>39.30553915192966</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>40.3079128364658</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>43.47103390525302</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>41.33584915225263</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>42.38999999999999</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>42.38999999999998</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>42.38999999999998</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>41.33584915225263</v>
@@ -4304,7 +4304,7 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>40.3079128364658</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>43.47103390525303</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>39.30553915192966</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>38.32809240934478</v>
+        <v>42.38999999999999</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>40.3079128364658</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>41.33584915225264</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>41.33584915225263</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>40.3079128364658</v>
+        <v>40.30791283646581</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>40.3079128364658</v>
@@ -5814,7 +5814,7 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>39.30553915192966</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>39.30553915192966</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>39.30553915192967</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>37.37495272767812</v>
@@ -6720,7 +6720,7 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>40.3079128364658</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>38.32809240934478</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>37.37495272767812</v>
+        <v>39.30553915192966</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>39.30553915192966</v>
@@ -7324,7 +7324,7 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>36.4455156410445</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>40.3079128364658</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>35.539191715364</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>41.33584915225263</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>40.3079128364658</v>
@@ -8230,7 +8230,7 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>41.33584915225263</v>
@@ -8532,7 +8532,7 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>40.3079128364658</v>
@@ -8834,7 +8834,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>41.33584915225263</v>
@@ -9136,7 +9136,7 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>40.3079128364658</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>41.33584915225263</v>
@@ -9740,7 +9740,7 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>42.38999999999998</v>
@@ -10042,7 +10042,7 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>41.33584915225263</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>40.3079128364658</v>
@@ -10646,7 +10646,7 @@
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>33.79359853600708</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>41.33584915225263</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>42.38999999999998</v>
@@ -11250,7 +11250,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>32.1337443788604</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>43.47103390525302</v>
@@ -11552,7 +11552,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>31.33464520739844</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>42.38999999999998</v>
@@ -11854,7 +11854,7 @@
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>32.1337443788604</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>41.33584915225263</v>
@@ -12156,7 +12156,7 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>32.95322225515864</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>40.3079128364658</v>
@@ -12458,7 +12458,7 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>39.30553915192966</v>
@@ -12760,7 +12760,7 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>38.32809240934478</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>40.3079128364658</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>33.79359853600707</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>41.33584915225263</v>
@@ -13364,7 +13364,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>34.65540617455233</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>40.3079128364658</v>
@@ -13666,7 +13666,7 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>35.53919171536399</v>
+        <v>37.37495272767812</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>41.33584915225263</v>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>36.44551564104449</v>
+        <v>36.4455156410445</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>42.38999999999998</v>
@@ -14270,7 +14270,7 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>37.37495272767811</v>
+        <v>35.539191715364</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>43.47103390525302</v>
@@ -14572,7 +14572,7 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>38.32809240934476</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>42.38999999999998</v>
@@ -14874,7 +14874,7 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>33.79359853600708</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>43.47103390525302</v>
@@ -15176,7 +15176,7 @@
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>34.65540617455233</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>42.38999999999998</v>
@@ -15478,7 +15478,7 @@
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>39.30553915192965</v>
+        <v>33.79359853600708</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>41.33584915225263</v>
@@ -15780,7 +15780,7 @@
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>40.30791283646578</v>
+        <v>32.95322225515864</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>42.38999999999998</v>
@@ -16082,7 +16082,7 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>41.33584915225263</v>
@@ -16384,7 +16384,7 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>32.95322225515863</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>40.3079128364658</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>41.33584915225261</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>39.30553915192966</v>
@@ -16988,7 +16988,7 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>42.38999999999997</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>38.32809240934478</v>
@@ -17290,7 +17290,7 @@
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>43.471033905253</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>37.37495272767812</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>38.32809240934478</v>
@@ -17894,7 +17894,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>45.71651066925461</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>37.37495272767812</v>
@@ -18196,7 +18196,7 @@
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>38.32809240934478</v>
@@ -18498,7 +18498,7 @@
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>37.3749527276781</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>37.37495272767812</v>
@@ -18800,7 +18800,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>42.38999999999996</v>
+        <v>36.44551564104448</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>36.4455156410445</v>
@@ -19102,7 +19102,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>37.37495272767812</v>
@@ -19404,7 +19404,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>34.65540617455232</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>36.4455156410445</v>
@@ -19706,7 +19706,7 @@
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>33.79359853600707</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>35.539191715364</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>36.44551564104449</v>
@@ -20310,7 +20310,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>35.53919171536399</v>
@@ -20612,7 +20612,7 @@
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>31.33464520739843</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>34.65540617455233</v>
@@ -20914,7 +20914,7 @@
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>32.13374437886038</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>33.79359853600707</v>
@@ -21216,7 +21216,7 @@
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>32.95322225515862</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>34.65540617455233</v>
@@ -21518,7 +21518,7 @@
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>33.79359853600707</v>
@@ -21820,7 +21820,7 @@
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>32.95322225515863</v>
@@ -22122,7 +22122,7 @@
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>33.79359853600706</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>32.13374437886039</v>
@@ -22424,7 +22424,7 @@
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>44.5796364423604</v>
+        <v>34.65540617455231</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>32.95322225515863</v>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>43.47103390525299</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>32.13374437886039</v>
@@ -23028,7 +23028,7 @@
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>31.33464520739843</v>
@@ -23330,7 +23330,7 @@
     </row>
     <row r="77">
       <c r="A77" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>35.53919171536398</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>30.5554179649063</v>
@@ -23632,7 +23632,7 @@
     </row>
     <row r="78">
       <c r="A78" s="0" t="n">
-        <v>46.88237757331986</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>31.33464520739843</v>
@@ -23934,7 +23934,7 @@
     </row>
     <row r="79">
       <c r="A79" s="0" t="n">
-        <v>45.7165106692546</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>32.13374437886039</v>
@@ -24236,7 +24236,7 @@
     </row>
     <row r="80">
       <c r="A80" s="0" t="n">
-        <v>44.57963644236039</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>32.95322225515863</v>
@@ -24538,7 +24538,7 @@
     </row>
     <row r="81">
       <c r="A81" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>32.13374437886039</v>
@@ -24840,7 +24840,7 @@
     </row>
     <row r="82">
       <c r="A82" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>32.95322225515863</v>
@@ -25142,7 +25142,7 @@
     </row>
     <row r="83">
       <c r="A83" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>32.13374437886039</v>
@@ -25444,7 +25444,7 @@
     </row>
     <row r="84">
       <c r="A84" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>38.32809240934474</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>32.95322225515863</v>
@@ -25746,7 +25746,7 @@
     </row>
     <row r="85">
       <c r="A85" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>37.37495272767809</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>33.79359853600707</v>
@@ -26048,7 +26048,7 @@
     </row>
     <row r="86">
       <c r="A86" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>34.65540617455232</v>
@@ -26350,7 +26350,7 @@
     </row>
     <row r="87">
       <c r="A87" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>35.53919171536397</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>35.53919171536398</v>
@@ -26652,7 +26652,7 @@
     </row>
     <row r="88">
       <c r="A88" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>36.44551564104448</v>
@@ -26954,7 +26954,7 @@
     </row>
     <row r="89">
       <c r="A89" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>35.53919171536397</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>35.53919171536398</v>
@@ -27256,7 +27256,7 @@
     </row>
     <row r="90">
       <c r="A90" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>36.44551564104447</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>34.65540617455232</v>
@@ -27558,7 +27558,7 @@
     </row>
     <row r="91">
       <c r="A91" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>37.37495272767808</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>35.53919171536398</v>
@@ -27860,7 +27860,7 @@
     </row>
     <row r="92">
       <c r="A92" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>38.32809240934473</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>36.44551564104448</v>
@@ -28162,7 +28162,7 @@
     </row>
     <row r="93">
       <c r="A93" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>39.30553915192962</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>35.53919171536398</v>
@@ -28464,7 +28464,7 @@
     </row>
     <row r="94">
       <c r="A94" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>40.30791283646575</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>34.65540617455232</v>
@@ -28766,7 +28766,7 @@
     </row>
     <row r="95">
       <c r="A95" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>41.33584915225257</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>33.79359853600707</v>
@@ -29068,7 +29068,7 @@
     </row>
     <row r="96">
       <c r="A96" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>32.95322225515862</v>
@@ -29370,7 +29370,7 @@
     </row>
     <row r="97">
       <c r="A97" s="0" t="n">
-        <v>45.71651066925459</v>
+        <v>39.30553915192961</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>33.79359853600706</v>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="98">
       <c r="A98" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>40.30791283646574</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>34.65540617455231</v>
@@ -29974,7 +29974,7 @@
     </row>
     <row r="99">
       <c r="A99" s="0" t="n">
-        <v>45.71651066925459</v>
+        <v>41.33584915225256</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>33.79359853600706</v>
@@ -30276,7 +30276,7 @@
     </row>
     <row r="100">
       <c r="A100" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>40.30791283646573</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>32.95322225515861</v>
@@ -30578,7 +30578,7 @@
     </row>
     <row r="101">
       <c r="A101" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>39.3055391519296</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>32.13374437886038</v>
@@ -30880,7 +30880,7 @@
     </row>
     <row r="102">
       <c r="A102" s="0" t="n">
-        <v>44.57963644236038</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>32.95322225515861</v>
@@ -31182,7 +31182,7 @@
     </row>
     <row r="103">
       <c r="A103" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>37.37495272767806</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>32.13374437886038</v>
@@ -31484,7 +31484,7 @@
     </row>
     <row r="104">
       <c r="A104" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>36.44551564104444</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>31.33464520739842</v>
@@ -31786,7 +31786,7 @@
     </row>
     <row r="105">
       <c r="A105" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>37.37495272767805</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>30.55541796490629</v>
@@ -32088,7 +32088,7 @@
     </row>
     <row r="106">
       <c r="A106" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>38.32809240934471</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>29.79556847797586</v>
@@ -32390,7 +32390,7 @@
     </row>
     <row r="107">
       <c r="A107" s="0" t="n">
-        <v>43.47103390525298</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>30.55541796490628</v>
@@ -32692,7 +32692,7 @@
     </row>
     <row r="108">
       <c r="A108" s="0" t="n">
-        <v>42.38999999999994</v>
+        <v>40.30791283646572</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>31.33464520739841</v>
@@ -32994,7 +32994,7 @@
     </row>
     <row r="109">
       <c r="A109" s="0" t="n">
-        <v>41.33584915225259</v>
+        <v>39.30553915192959</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>30.55541796490628</v>
@@ -33296,7 +33296,7 @@
     </row>
     <row r="110">
       <c r="A110" s="0" t="n">
-        <v>40.30791283646576</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>29.79556847797586</v>
@@ -33598,7 +33598,7 @@
     </row>
     <row r="111">
       <c r="A111" s="0" t="n">
-        <v>39.30553915192963</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>30.55541796490628</v>
@@ -33900,7 +33900,7 @@
     </row>
     <row r="112">
       <c r="A112" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>29.79556847797586</v>
@@ -34202,7 +34202,7 @@
     </row>
     <row r="113">
       <c r="A113" s="0" t="n">
-        <v>37.37495272767809</v>
+        <v>41.33584915225254</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>30.55541796490628</v>
@@ -34504,7 +34504,7 @@
     </row>
     <row r="114">
       <c r="A114" s="0" t="n">
-        <v>38.32809240934474</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>31.33464520739841</v>
@@ -34806,7 +34806,7 @@
     </row>
     <row r="115">
       <c r="A115" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>30.55541796490628</v>
@@ -35108,7 +35108,7 @@
     </row>
     <row r="116">
       <c r="A116" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>31.33464520739841</v>
@@ -35410,7 +35410,7 @@
     </row>
     <row r="117">
       <c r="A117" s="0" t="n">
-        <v>41.33584915225258</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>30.55541796490627</v>
@@ -35712,7 +35712,7 @@
     </row>
     <row r="118">
       <c r="A118" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>31.3346452073984</v>
@@ -36014,7 +36014,7 @@
     </row>
     <row r="119">
       <c r="A119" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>32.13374437886036</v>
@@ -36316,7 +36316,7 @@
     </row>
     <row r="120">
       <c r="A120" s="0" t="n">
-        <v>40.30791283646575</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>32.95322225515859</v>
@@ -36618,7 +36618,7 @@
     </row>
     <row r="121">
       <c r="A121" s="0" t="n">
-        <v>39.30553915192962</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>32.13374437886036</v>
@@ -36920,7 +36920,7 @@
     </row>
     <row r="122">
       <c r="A122" s="0" t="n">
-        <v>38.32809240934473</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>32.95322225515859</v>
@@ -37222,7 +37222,7 @@
     </row>
     <row r="123">
       <c r="A123" s="0" t="n">
-        <v>39.30553915192961</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>33.79359853600703</v>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="124">
       <c r="A124" s="0" t="n">
-        <v>40.30791283646574</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B124" s="0" t="n">
         <v>32.95322225515859</v>
@@ -37826,7 +37826,7 @@
     </row>
     <row r="125">
       <c r="A125" s="0" t="n">
-        <v>41.33584915225256</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B125" s="0" t="n">
         <v>32.13374437886036</v>
@@ -38128,7 +38128,7 @@
     </row>
     <row r="126">
       <c r="A126" s="0" t="n">
-        <v>42.38999999999991</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="B126" s="0" t="n">
         <v>32.95322225515859</v>
@@ -38430,7 +38430,7 @@
     </row>
     <row r="127">
       <c r="A127" s="0" t="n">
-        <v>41.33584915225256</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B127" s="0" t="n">
         <v>33.79359853600703</v>
@@ -38732,7 +38732,7 @@
     </row>
     <row r="128">
       <c r="A128" s="0" t="n">
-        <v>42.3899999999999</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B128" s="0" t="n">
         <v>32.95322225515859</v>
@@ -39034,7 +39034,7 @@
     </row>
     <row r="129">
       <c r="A129" s="0" t="n">
-        <v>43.47103390525294</v>
+        <v>37.37495272767804</v>
       </c>
       <c r="B129" s="0" t="n">
         <v>32.13374437886036</v>
@@ -39336,7 +39336,7 @@
     </row>
     <row r="130">
       <c r="A130" s="0" t="n">
-        <v>42.3899999999999</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B130" s="0" t="n">
         <v>31.3346452073984</v>
@@ -39638,7 +39638,7 @@
     </row>
     <row r="131">
       <c r="A131" s="0" t="n">
-        <v>41.33584915225255</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B131" s="0" t="n">
         <v>30.55541796490627</v>
@@ -39940,7 +39940,7 @@
     </row>
     <row r="132">
       <c r="A132" s="0" t="n">
-        <v>42.38999999999989</v>
+        <v>38.3280924093447</v>
       </c>
       <c r="B132" s="0" t="n">
         <v>29.79556847797584</v>
@@ -40242,7 +40242,7 @@
     </row>
     <row r="133">
       <c r="A133" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>39.30553915192958</v>
       </c>
       <c r="B133" s="0" t="n">
         <v>29.05461486226052</v>
@@ -40544,7 +40544,7 @@
     </row>
     <row r="134">
       <c r="A134" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>40.30791283646571</v>
       </c>
       <c r="B134" s="0" t="n">
         <v>29.79556847797584</v>
@@ -41148,7 +41148,7 @@
     </row>
     <row r="136">
       <c r="A136" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>29.79556847797584</v>
@@ -41450,7 +41450,7 @@
     </row>
     <row r="137">
       <c r="A137" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>43.47103390525292</v>
       </c>
       <c r="B137" s="0" t="n">
         <v>29.05461486226052</v>
@@ -41752,7 +41752,7 @@
     </row>
     <row r="138">
       <c r="A138" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>42.38999999999988</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>29.79556847797584</v>
@@ -42054,7 +42054,7 @@
     </row>
     <row r="139">
       <c r="A139" s="0" t="n">
-        <v>41.33584915225254</v>
+        <v>41.33584915225253</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>30.55541796490626</v>
@@ -42356,7 +42356,7 @@
     </row>
     <row r="140">
       <c r="A140" s="0" t="n">
-        <v>40.30791283646572</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>29.79556847797584</v>
@@ -42658,7 +42658,7 @@
     </row>
     <row r="141">
       <c r="A141" s="0" t="n">
-        <v>39.30553915192959</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>30.55541796490626</v>
@@ -42960,7 +42960,7 @@
     </row>
     <row r="142">
       <c r="A142" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>31.33464520739839</v>
@@ -43262,7 +43262,7 @@
     </row>
     <row r="143">
       <c r="A143" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B143" s="0" t="n">
         <v>30.55541796490626</v>
@@ -43564,7 +43564,7 @@
     </row>
     <row r="144">
       <c r="A144" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B144" s="0" t="n">
         <v>31.33464520739839</v>
@@ -43866,7 +43866,7 @@
     </row>
     <row r="145">
       <c r="A145" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B145" s="0" t="n">
         <v>30.55541796490625</v>
@@ -44168,7 +44168,7 @@
     </row>
     <row r="146">
       <c r="A146" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B146" s="0" t="n">
         <v>29.79556847797583</v>
@@ -44470,7 +44470,7 @@
     </row>
     <row r="147">
       <c r="A147" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B147" s="0" t="n">
         <v>30.55541796490625</v>
@@ -44772,7 +44772,7 @@
     </row>
     <row r="148">
       <c r="A148" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B148" s="0" t="n">
         <v>29.79556847797583</v>
@@ -45074,7 +45074,7 @@
     </row>
     <row r="149">
       <c r="A149" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B149" s="0" t="n">
         <v>30.55541796490625</v>
@@ -45376,7 +45376,7 @@
     </row>
     <row r="150">
       <c r="A150" s="0" t="n">
-        <v>38.3280924093447</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B150" s="0" t="n">
         <v>29.79556847797583</v>
@@ -45678,7 +45678,7 @@
     </row>
     <row r="151">
       <c r="A151" s="0" t="n">
-        <v>37.37495272767804</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B151" s="0" t="n">
         <v>30.55541796490625</v>
@@ -45980,7 +45980,7 @@
     </row>
     <row r="152">
       <c r="A152" s="0" t="n">
-        <v>36.44551564104443</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B152" s="0" t="n">
         <v>29.79556847797583</v>
@@ -46282,7 +46282,7 @@
     </row>
     <row r="153">
       <c r="A153" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B153" s="0" t="n">
         <v>29.05461486226051</v>
@@ -46584,7 +46584,7 @@
     </row>
     <row r="154">
       <c r="A154" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B154" s="0" t="n">
         <v>28.33208721687187</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="155">
       <c r="A155" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B155" s="0" t="n">
         <v>27.62752732637606</v>
@@ -47188,7 +47188,7 @@
     </row>
     <row r="156">
       <c r="A156" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B156" s="0" t="n">
         <v>28.33208721687187</v>
@@ -47490,7 +47490,7 @@
     </row>
     <row r="157">
       <c r="A157" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B157" s="0" t="n">
         <v>27.62752732637606</v>
@@ -47792,7 +47792,7 @@
     </row>
     <row r="158">
       <c r="A158" s="0" t="n">
-        <v>34.65540617455227</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B158" s="0" t="n">
         <v>28.33208721687187</v>
@@ -48094,7 +48094,7 @@
     </row>
     <row r="159">
       <c r="A159" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B159" s="0" t="n">
         <v>29.05461486226051</v>
@@ -48396,7 +48396,7 @@
     </row>
     <row r="160">
       <c r="A160" s="0" t="n">
-        <v>32.95322225515858</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B160" s="0" t="n">
         <v>29.79556847797583</v>
@@ -48698,7 +48698,7 @@
     </row>
     <row r="161">
       <c r="A161" s="0" t="n">
-        <v>33.79359853600702</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B161" s="0" t="n">
         <v>30.55541796490625</v>
@@ -49000,7 +49000,7 @@
     </row>
     <row r="162">
       <c r="A162" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B162" s="0" t="n">
         <v>31.33464520739838</v>
@@ -49302,7 +49302,7 @@
     </row>
     <row r="163">
       <c r="A163" s="0" t="n">
-        <v>35.53919171536393</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B163" s="0" t="n">
         <v>30.55541796490625</v>
@@ -49604,7 +49604,7 @@
     </row>
     <row r="164">
       <c r="A164" s="0" t="n">
-        <v>34.65540617455226</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B164" s="0" t="n">
         <v>29.79556847797583</v>
@@ -49906,7 +49906,7 @@
     </row>
     <row r="165">
       <c r="A165" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B165" s="0" t="n">
         <v>29.05461486226051</v>
@@ -50208,7 +50208,7 @@
     </row>
     <row r="166">
       <c r="A166" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B166" s="0" t="n">
         <v>28.33208721687187</v>
@@ -50510,7 +50510,7 @@
     </row>
     <row r="167">
       <c r="A167" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B167" s="0" t="n">
         <v>27.62752732637606</v>
@@ -50812,7 +50812,7 @@
     </row>
     <row r="168">
       <c r="A168" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B168" s="0" t="n">
         <v>28.33208721687187</v>
@@ -51114,7 +51114,7 @@
     </row>
     <row r="169">
       <c r="A169" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B169" s="0" t="n">
         <v>29.05461486226051</v>
@@ -51416,7 +51416,7 @@
     </row>
     <row r="170">
       <c r="A170" s="0" t="n">
-        <v>31.33464520739838</v>
+        <v>42.38999999999987</v>
       </c>
       <c r="B170" s="0" t="n">
         <v>29.79556847797583</v>
@@ -51718,7 +51718,7 @@
     </row>
     <row r="171">
       <c r="A171" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>41.33584915225252</v>
       </c>
       <c r="B171" s="0" t="n">
         <v>30.55541796490625</v>
@@ -52020,7 +52020,7 @@
     </row>
     <row r="172">
       <c r="A172" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B172" s="0" t="n">
         <v>29.79556847797583</v>
@@ -52322,7 +52322,7 @@
     </row>
     <row r="173">
       <c r="A173" s="0" t="n">
-        <v>32.13374437886034</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B173" s="0" t="n">
         <v>30.55541796490625</v>
@@ -52624,7 +52624,7 @@
     </row>
     <row r="174">
       <c r="A174" s="0" t="n">
-        <v>32.95322225515857</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="B174" s="0" t="n">
         <v>31.33464520739838</v>
@@ -52926,7 +52926,7 @@
     </row>
     <row r="175">
       <c r="A175" s="0" t="n">
-        <v>33.79359853600701</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="B175" s="0" t="n">
         <v>30.55541796490625</v>
@@ -53228,7 +53228,7 @@
     </row>
     <row r="176">
       <c r="A176" s="0" t="n">
-        <v>34.65540617455225</v>
+        <v>36.44551564104442</v>
       </c>
       <c r="B176" s="0" t="n">
         <v>31.33464520739838</v>
@@ -53530,7 +53530,7 @@
     </row>
     <row r="177">
       <c r="A177" s="0" t="n">
-        <v>35.53919171536392</v>
+        <v>37.37495272767803</v>
       </c>
       <c r="B177" s="0" t="n">
         <v>32.13374437886034</v>
@@ -53832,7 +53832,7 @@
     </row>
     <row r="178">
       <c r="A178" s="0" t="n">
-        <v>36.44551564104442</v>
+        <v>38.32809240934468</v>
       </c>
       <c r="B178" s="0" t="n">
         <v>32.95322225515857</v>
@@ -54134,7 +54134,7 @@
     </row>
     <row r="179">
       <c r="A179" s="0" t="n">
-        <v>37.37495272767803</v>
+        <v>39.30553915192957</v>
       </c>
       <c r="B179" s="0" t="n">
         <v>32.13374437886034</v>
@@ -54436,7 +54436,7 @@
     </row>
     <row r="180">
       <c r="A180" s="0" t="n">
-        <v>38.32809240934468</v>
+        <v>40.3079128364657</v>
       </c>
       <c r="B180" s="0" t="n">
         <v>32.95322225515857</v>
